--- a/Spring 2017 CHAMP Responses.xlsx
+++ b/Spring 2017 CHAMP Responses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="466">
   <si>
     <t>Timestamp</t>
   </si>
@@ -280,9 +280,6 @@
     <t>Use this space to provide any additional feedback about anything relating to the emergency scenario.</t>
   </si>
   <si>
-    <t>Devon Campbell</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -295,54 +292,15 @@
     <t>American</t>
   </si>
   <si>
-    <t>Lab Assistant</t>
-  </si>
-  <si>
     <t>Aerospace Engineering</t>
   </si>
   <si>
-    <t>Perhaps moving through the main hatch into the habitat but really there was very little problem with movement.</t>
-  </si>
-  <si>
-    <t>Sleep station 1 has some large holes in it which made the privacy very poor. It also got very caught up when trying to open it which was slightly problematic.</t>
-  </si>
-  <si>
-    <t>Ducting caused a small amount of overlap with command center which I wasn't a huge fan of.</t>
-  </si>
-  <si>
-    <t>It definitely seemed a bit too crowded in the whole thing with people trying to do PGBA and WPA.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Need more labels on EXPRESS Rack to show where to plug all the things when doing WPA-1 installation. </t>
-  </si>
-  <si>
-    <t>The treadmill was sideways and the resistive exercise device didn't work at all.</t>
-  </si>
-  <si>
-    <t>3 of us had to compromise with using the available space next to the express rack because there was not enough space.</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
     <t>EVA astronaut</t>
   </si>
   <si>
-    <t>The treadmill impeded a little into the area needed for donning and doffing</t>
-  </si>
-  <si>
-    <t>Exercise equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Possibly on the wall/ceiling. </t>
-  </si>
-  <si>
-    <t>It was awesome</t>
-  </si>
-  <si>
-    <t>Provided feedback as participated.</t>
-  </si>
-  <si>
     <t>Joseph Smith</t>
   </si>
   <si>
@@ -352,40 +310,7 @@
     <t>United States</t>
   </si>
   <si>
-    <t>Project Manger of the best damn team in the world</t>
-  </si>
-  <si>
-    <t>Phyics</t>
-  </si>
-  <si>
-    <t>It is easier for crew member 4 to enter into HAB 2 before crew member 3 configured the 3rd sleep station. But that is a 1g consideration</t>
-  </si>
-  <si>
-    <t>Not particularly concerned with locking operability</t>
-  </si>
-  <si>
-    <t>I like the location because it is close to the galley table</t>
-  </si>
-  <si>
-    <t>It is better done if one crew member reads the procedure while the other crew member(s) works. In micro gravity I think there will be plenty of space</t>
-  </si>
-  <si>
-    <t>WPA 2 scenario went smoothly. I did not perform WPA 1 procedure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resistive machine needs a couple of more </t>
-  </si>
-  <si>
     <t>Intravehicular assistant</t>
-  </si>
-  <si>
-    <t>Ventilation prevented the hatch from opening entirely. Exercise equipment was a little in the way</t>
-  </si>
-  <si>
-    <t>Storage, Exercise/ don doff area</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exercise equipment interfered with don/doff. Maybe put equipment on ceiling. </t>
   </si>
   <si>
     <t>Vertical</t>
@@ -1839,11 +1764,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CJ27"/>
+  <dimension ref="A1:CJ25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M7" sqref="M7"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2129,52 +2054,61 @@
     </row>
     <row r="2" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>42837.782096712966</v>
+        <v>42839.561801041666</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="H2" s="1">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>89</v>
+      <c r="M2" s="1">
+        <v>60</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="T2" s="1">
-        <v>70</v>
+        <v>66.5</v>
       </c>
       <c r="U2" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="V2" s="1">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="W2" s="1">
         <v>5</v>
@@ -2183,10 +2117,10 @@
         <v>5</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="Z2" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA2" s="1">
         <v>6</v>
@@ -2195,268 +2129,261 @@
         <v>6</v>
       </c>
       <c r="AC2" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AD2" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="AF2" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AG2" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AH2" s="1">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="AJ2" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK2" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AL2" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AM2" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="AO2" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AP2" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AQ2" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AR2" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AS2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AU2" s="1">
+        <v>5</v>
+      </c>
+      <c r="AV2" s="1">
+        <v>5</v>
+      </c>
+      <c r="AW2" s="1">
+        <v>5</v>
+      </c>
+      <c r="AX2" s="1">
+        <v>5</v>
+      </c>
+      <c r="AZ2" s="1">
+        <v>2</v>
+      </c>
+      <c r="BA2" s="1">
+        <v>5</v>
+      </c>
+      <c r="BB2" s="1">
+        <v>5</v>
+      </c>
+      <c r="BC2" s="1">
+        <v>5</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="BE2" s="1">
+        <v>2</v>
+      </c>
+      <c r="BF2" s="1">
+        <v>2</v>
+      </c>
+      <c r="BG2" s="1">
+        <v>2</v>
+      </c>
+      <c r="BH2" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="BK2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BL2" s="1">
+        <v>2</v>
+      </c>
+      <c r="BM2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BO2" s="1">
+        <v>4</v>
+      </c>
+      <c r="BP2" s="1">
+        <v>4</v>
+      </c>
+      <c r="BQ2" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AT2" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AU2" s="1">
-        <v>6</v>
-      </c>
-      <c r="AV2" s="1">
-        <v>6</v>
-      </c>
-      <c r="AW2" s="1">
-        <v>6</v>
-      </c>
-      <c r="AX2" s="1">
-        <v>2</v>
-      </c>
-      <c r="AY2" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AZ2" s="1">
-        <v>6</v>
-      </c>
-      <c r="BA2" s="1">
-        <v>6</v>
-      </c>
-      <c r="BB2" s="1">
-        <v>6</v>
-      </c>
-      <c r="BC2" s="1">
-        <v>6</v>
-      </c>
-      <c r="BE2" s="1">
-        <v>4</v>
-      </c>
-      <c r="BF2" s="1">
-        <v>6</v>
-      </c>
-      <c r="BG2" s="1">
-        <v>6</v>
-      </c>
-      <c r="BH2" s="1">
-        <v>6</v>
-      </c>
-      <c r="BI2" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="BK2" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="BL2" s="1">
-        <v>5</v>
-      </c>
-      <c r="BM2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="BO2" s="1">
-        <v>6</v>
-      </c>
-      <c r="BP2" s="1">
-        <v>6</v>
-      </c>
-      <c r="BQ2" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="BR2" s="1">
-        <v>6</v>
-      </c>
-      <c r="BS2" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="BV2" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BW2" s="1">
         <v>4</v>
       </c>
       <c r="BX2" s="1">
-        <v>6</v>
-      </c>
-      <c r="BY2" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="BZ2" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="CH2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="CI2" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="CJ2" s="3"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="3" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>42837.784034965276</v>
+        <v>42839.568100891207</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H3" s="1">
+        <v>30</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="M3" s="1">
+        <v>1</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q3" s="1">
         <v>0</v>
       </c>
-      <c r="D3" s="1">
+      <c r="R3" s="1">
+        <v>0</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="T3" s="1">
+        <v>63.125</v>
+      </c>
+      <c r="U3" s="1">
+        <v>18.125</v>
+      </c>
+      <c r="V3" s="1">
+        <v>32</v>
+      </c>
+      <c r="W3" s="1">
+        <v>1</v>
+      </c>
+      <c r="X3" s="1">
+        <v>6</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z3" s="1">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H3" s="1">
-        <v>23</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="M3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="T3" s="1">
-        <v>72</v>
-      </c>
-      <c r="U3" s="1">
-        <v>18</v>
-      </c>
-      <c r="V3" s="1">
-        <v>40</v>
-      </c>
-      <c r="W3" s="1">
-        <v>6</v>
-      </c>
-      <c r="X3" s="1">
-        <v>5</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z3" s="1">
-        <v>5</v>
-      </c>
       <c r="AA3" s="1">
         <v>6</v>
       </c>
       <c r="AB3" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AC3" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AD3" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="AF3" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AG3" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AH3" s="1">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="AJ3" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK3" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AL3" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AM3" s="1">
-        <v>6</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>116</v>
+        <v>5</v>
       </c>
       <c r="AO3" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AP3" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AQ3" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AR3" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AS3" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="AU3" s="1">
         <v>6</v>
@@ -2468,159 +2395,135 @@
         <v>6</v>
       </c>
       <c r="AX3" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY3" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="AZ3" s="1">
         <v>6</v>
       </c>
       <c r="BA3" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB3" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BC3" s="1">
         <v>6</v>
       </c>
       <c r="BE3" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BF3" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BG3" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BH3" s="1">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="BI3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="BJ3" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="BK3" s="1" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="BL3" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BM3" s="1" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="BN3" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BO3" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BP3" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BQ3" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="BT3" s="1">
-        <v>5</v>
-      </c>
-      <c r="BU3" s="1" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="BV3" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BW3" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BX3" s="1">
-        <v>6</v>
-      </c>
-      <c r="BY3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="BZ3" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="CA3" s="1">
-        <v>3</v>
-      </c>
-      <c r="CB3" s="1">
-        <v>3</v>
-      </c>
-      <c r="CC3" s="1">
-        <v>5</v>
-      </c>
-      <c r="CD3" s="1">
-        <v>3</v>
-      </c>
-      <c r="CE3" s="1">
-        <v>3</v>
-      </c>
-      <c r="CF3" s="1" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>42839.561801041666</v>
+        <v>42839.589935949072</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>126</v>
+        <v>90</v>
       </c>
       <c r="H4" s="1">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="M4" s="1">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>130</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T4" s="1">
-        <v>66.5</v>
+        <v>71</v>
       </c>
       <c r="U4" s="1">
-        <v>16</v>
+        <v>18.125</v>
       </c>
       <c r="V4" s="1">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="W4" s="1">
         <v>5</v>
       </c>
       <c r="X4" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y4" s="1" t="s">
         <v>131</v>
@@ -2629,267 +2532,313 @@
         <v>5</v>
       </c>
       <c r="AA4" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB4" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AC4" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AD4" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE4" s="1" t="s">
         <v>132</v>
       </c>
       <c r="AF4" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG4" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH4" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AI4" s="1" t="s">
         <v>133</v>
       </c>
       <c r="AJ4" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK4" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AL4" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AM4" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AN4" s="1" t="s">
         <v>134</v>
       </c>
       <c r="AO4" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AP4" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AR4" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AS4" s="1" t="s">
         <v>135</v>
       </c>
+      <c r="AT4" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="AU4" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV4" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW4" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX4" s="1">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="AY4" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="AZ4" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BA4" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB4" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC4" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD4" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="BE4" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BF4" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BG4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BH4" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BI4" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="BK4" s="1" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="BL4" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BM4" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
+      </c>
+      <c r="BN4" s="1">
+        <v>5</v>
       </c>
       <c r="BO4" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BP4" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BQ4" s="1" t="s">
-        <v>120</v>
+        <v>94</v>
+      </c>
+      <c r="BR4" s="1">
+        <v>4</v>
+      </c>
+      <c r="BS4" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="BV4" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BW4" s="1">
         <v>4</v>
       </c>
       <c r="BX4" s="1">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="BY4" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="BZ4" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="CA4" s="1">
+        <v>5</v>
+      </c>
+      <c r="CB4" s="1">
+        <v>4</v>
+      </c>
+      <c r="CC4" s="1">
+        <v>4</v>
+      </c>
+      <c r="CD4" s="1">
+        <v>4</v>
+      </c>
+      <c r="CE4" s="1">
+        <v>3</v>
+      </c>
+      <c r="CF4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CG4" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="CI4" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="CJ4" s="3"/>
     </row>
     <row r="5" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>42839.568100891207</v>
+        <v>42839.590377824075</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>89</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>126</v>
+        <v>90</v>
       </c>
       <c r="H5" s="1">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="M5" s="1">
-        <v>1</v>
+        <v>5500</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="Q5" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R5" s="1">
-        <v>0</v>
+        <v>4848</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="T5" s="1">
-        <v>63.125</v>
+        <v>67.5</v>
       </c>
       <c r="U5" s="1">
-        <v>18.125</v>
+        <v>18.75</v>
       </c>
       <c r="V5" s="1">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="W5" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="X5" s="1">
         <v>6</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="Z5" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>6</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>6</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>6</v>
+      </c>
+      <c r="AD5" s="1">
         <v>3</v>
       </c>
-      <c r="AA5" s="1">
-        <v>6</v>
-      </c>
-      <c r="AB5" s="1">
-        <v>2</v>
-      </c>
-      <c r="AC5" s="1">
-        <v>2</v>
-      </c>
-      <c r="AD5" s="1">
-        <v>2</v>
-      </c>
       <c r="AE5" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="AF5" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AG5" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AH5" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AI5" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="AJ5" s="1">
         <v>6</v>
       </c>
       <c r="AK5" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AL5" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AM5" s="1">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="AN5" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="AO5" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AP5" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AQ5" s="1">
         <v>1</v>
       </c>
       <c r="AR5" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS5" s="1" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="AT5" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="AU5" s="1">
         <v>6</v>
@@ -2904,168 +2853,202 @@
         <v>6</v>
       </c>
       <c r="AY5" s="1" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="AZ5" s="1">
         <v>6</v>
       </c>
       <c r="BA5" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB5" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BC5" s="1">
         <v>6</v>
       </c>
+      <c r="BD5" s="1" t="s">
+        <v>155</v>
+      </c>
       <c r="BE5" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BF5" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BG5" s="1">
         <v>3</v>
       </c>
       <c r="BH5" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BI5" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="BJ5" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="BK5" s="1" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="BL5" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BM5" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="BN5" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BO5" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BP5" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BQ5" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
+      </c>
+      <c r="BT5" s="1">
+        <v>6</v>
+      </c>
+      <c r="BU5" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="BV5" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BW5" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BX5" s="1">
-        <v>4</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="BZ5" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="CA5" s="1">
+        <v>5</v>
+      </c>
+      <c r="CB5" s="1">
+        <v>4</v>
+      </c>
+      <c r="CC5" s="1">
+        <v>5</v>
+      </c>
+      <c r="CD5" s="1">
+        <v>4</v>
+      </c>
+      <c r="CE5" s="1">
+        <v>5</v>
+      </c>
+      <c r="CF5" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="CG5" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="CI5" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="CJ5" s="3"/>
     </row>
     <row r="6" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>42839.589935949072</v>
+        <v>42842.463314201392</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="1">
-        <v>2</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>110</v>
+        <v>163</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>89</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H6" s="1">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>127</v>
+        <v>164</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>94</v>
+        <v>166</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="M6" s="1">
+        <v>88</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q6" s="1">
         <v>0</v>
       </c>
-      <c r="N6" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>89</v>
+      <c r="R6" s="1">
+        <v>0</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T6" s="1">
-        <v>71</v>
+        <v>70.5</v>
       </c>
       <c r="U6" s="1">
-        <v>18.125</v>
+        <v>18.5</v>
       </c>
       <c r="V6" s="1">
-        <v>32</v>
+        <v>30.75</v>
       </c>
       <c r="W6" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X6" s="1">
         <v>6</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="Z6" s="1">
         <v>5</v>
       </c>
       <c r="AA6" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB6" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AC6" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AD6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE6" s="1" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="AF6" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG6" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH6" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AI6" s="1" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="AJ6" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK6" s="1">
         <v>6</v>
@@ -3077,28 +3060,25 @@
         <v>6</v>
       </c>
       <c r="AN6" s="1" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="AO6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AP6" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AQ6" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AR6" s="1">
         <v>5</v>
       </c>
       <c r="AS6" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="AT6" s="1" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="AU6" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV6" s="1">
         <v>6</v>
@@ -3107,85 +3087,55 @@
         <v>6</v>
       </c>
       <c r="AX6" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY6" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AZ6" s="1">
-        <v>6</v>
-      </c>
-      <c r="BA6" s="1">
-        <v>6</v>
-      </c>
-      <c r="BB6" s="1">
-        <v>6</v>
-      </c>
-      <c r="BC6" s="1">
-        <v>6</v>
-      </c>
-      <c r="BD6" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="BE6" s="1">
-        <v>4</v>
-      </c>
-      <c r="BF6" s="1">
-        <v>4</v>
-      </c>
-      <c r="BG6" s="1">
-        <v>3</v>
-      </c>
-      <c r="BH6" s="1">
-        <v>4</v>
-      </c>
-      <c r="BI6" s="1" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="BK6" s="1" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="BL6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BM6" s="1" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="BN6" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BO6" s="1">
         <v>5</v>
       </c>
       <c r="BP6" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BQ6" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="BR6" s="1">
-        <v>4</v>
-      </c>
-      <c r="BS6" s="1" t="s">
-        <v>165</v>
+        <v>98</v>
+      </c>
+      <c r="BT6" s="1">
+        <v>6</v>
+      </c>
+      <c r="BU6" s="1" t="s">
+        <v>173</v>
       </c>
       <c r="BV6" s="1">
         <v>5</v>
       </c>
       <c r="BW6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BX6" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BY6" s="1" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="BZ6" s="1" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="CA6" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CB6" s="1">
         <v>4</v>
@@ -3197,82 +3147,66 @@
         <v>4</v>
       </c>
       <c r="CE6" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CF6" s="1" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="CG6" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="CI6" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="CJ6" s="3"/>
+        <v>176</v>
+      </c>
+      <c r="CJ6" s="1" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="7" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>42839.590377824075</v>
+        <v>42842.466001469904</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>170</v>
+        <v>95</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" s="1">
         <v>4</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="H7" s="1">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>127</v>
+        <v>178</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="M7" s="1">
-        <v>5500</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>173</v>
+        <v>88</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>5</v>
-      </c>
-      <c r="R7" s="1">
-        <v>4848</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="T7" s="1">
-        <v>67.5</v>
+        <v>72</v>
       </c>
       <c r="U7" s="1">
-        <v>18.75</v>
+        <v>19.75</v>
       </c>
       <c r="V7" s="1">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="W7" s="1">
         <v>6</v>
@@ -3281,10 +3215,10 @@
         <v>6</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="Z7" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AA7" s="1">
         <v>6</v>
@@ -3296,223 +3230,195 @@
         <v>6</v>
       </c>
       <c r="AD7" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>6</v>
+      </c>
+      <c r="AG7" s="1">
+        <v>6</v>
+      </c>
+      <c r="AH7" s="1">
+        <v>6</v>
+      </c>
+      <c r="AI7" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="AJ7" s="1">
+        <v>6</v>
+      </c>
+      <c r="AK7" s="1">
+        <v>6</v>
+      </c>
+      <c r="AL7" s="1">
+        <v>6</v>
+      </c>
+      <c r="AM7" s="1">
+        <v>6</v>
+      </c>
+      <c r="AO7" s="1">
+        <v>6</v>
+      </c>
+      <c r="AP7" s="1">
+        <v>5</v>
+      </c>
+      <c r="AQ7" s="1">
+        <v>5</v>
+      </c>
+      <c r="AR7" s="1">
+        <v>6</v>
+      </c>
+      <c r="AS7" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AT7" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AU7" s="1">
+        <v>6</v>
+      </c>
+      <c r="AV7" s="1">
+        <v>6</v>
+      </c>
+      <c r="AW7" s="1">
+        <v>6</v>
+      </c>
+      <c r="AX7" s="1">
+        <v>6</v>
+      </c>
+      <c r="AY7" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="AZ7" s="1">
+        <v>6</v>
+      </c>
+      <c r="BA7" s="1">
+        <v>6</v>
+      </c>
+      <c r="BB7" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC7" s="1">
+        <v>6</v>
+      </c>
+      <c r="BK7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BL7" s="1">
+        <v>5</v>
+      </c>
+      <c r="BM7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BN7" s="1">
+        <v>6</v>
+      </c>
+      <c r="BO7" s="1">
+        <v>6</v>
+      </c>
+      <c r="BP7" s="1">
+        <v>6</v>
+      </c>
+      <c r="BQ7" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BT7" s="1">
+        <v>6</v>
+      </c>
+      <c r="BU7" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="BV7" s="1">
+        <v>6</v>
+      </c>
+      <c r="BW7" s="1">
+        <v>6</v>
+      </c>
+      <c r="BX7" s="1">
+        <v>6</v>
+      </c>
+      <c r="BY7" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="BZ7" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="CA7" s="1">
+        <v>6</v>
+      </c>
+      <c r="CD7" s="1">
+        <v>4</v>
+      </c>
+      <c r="CE7" s="1">
         <v>3</v>
       </c>
-      <c r="AE7" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="AF7" s="1">
-        <v>6</v>
-      </c>
-      <c r="AG7" s="1">
-        <v>6</v>
-      </c>
-      <c r="AH7" s="1">
-        <v>6</v>
-      </c>
-      <c r="AI7" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="AJ7" s="1">
-        <v>6</v>
-      </c>
-      <c r="AK7" s="1">
-        <v>6</v>
-      </c>
-      <c r="AL7" s="1">
-        <v>6</v>
-      </c>
-      <c r="AM7" s="1">
-        <v>6</v>
-      </c>
-      <c r="AN7" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="AO7" s="1">
-        <v>5</v>
-      </c>
-      <c r="AP7" s="1">
-        <v>3</v>
-      </c>
-      <c r="AQ7" s="1">
-        <v>1</v>
-      </c>
-      <c r="AR7" s="1">
-        <v>3</v>
-      </c>
-      <c r="AS7" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="AT7" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="AU7" s="1">
-        <v>6</v>
-      </c>
-      <c r="AV7" s="1">
-        <v>6</v>
-      </c>
-      <c r="AW7" s="1">
-        <v>6</v>
-      </c>
-      <c r="AX7" s="1">
-        <v>6</v>
-      </c>
-      <c r="AY7" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="AZ7" s="1">
-        <v>6</v>
-      </c>
-      <c r="BA7" s="1">
-        <v>6</v>
-      </c>
-      <c r="BB7" s="1">
-        <v>6</v>
-      </c>
-      <c r="BC7" s="1">
-        <v>6</v>
-      </c>
-      <c r="BD7" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="BE7" s="1">
-        <v>6</v>
-      </c>
-      <c r="BF7" s="1">
-        <v>5</v>
-      </c>
-      <c r="BG7" s="1">
-        <v>3</v>
-      </c>
-      <c r="BH7" s="1">
-        <v>6</v>
-      </c>
-      <c r="BI7" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="BK7" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="BL7" s="1">
-        <v>6</v>
-      </c>
-      <c r="BM7" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="BN7" s="1">
-        <v>6</v>
-      </c>
-      <c r="BO7" s="1">
-        <v>5</v>
-      </c>
-      <c r="BP7" s="1">
-        <v>5</v>
-      </c>
-      <c r="BQ7" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="BT7" s="1">
-        <v>6</v>
-      </c>
-      <c r="BU7" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="BV7" s="1">
-        <v>6</v>
-      </c>
-      <c r="BW7" s="1">
-        <v>5</v>
-      </c>
-      <c r="BX7" s="1">
-        <v>6</v>
-      </c>
-      <c r="BZ7" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="CA7" s="1">
-        <v>5</v>
-      </c>
-      <c r="CB7" s="1">
-        <v>4</v>
-      </c>
-      <c r="CC7" s="1">
-        <v>5</v>
-      </c>
-      <c r="CD7" s="1">
-        <v>4</v>
-      </c>
-      <c r="CE7" s="1">
-        <v>5</v>
-      </c>
       <c r="CF7" s="1" t="s">
-        <v>184</v>
+        <v>99</v>
       </c>
       <c r="CG7" s="1" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="CI7" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="CJ7" s="3"/>
+        <v>191</v>
+      </c>
+      <c r="CJ7" s="1" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="8" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>42842.463314201392</v>
+        <v>42842.468501157404</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>188</v>
+        <v>114</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>90</v>
+        <v>194</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H8" s="1">
+        <v>24</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H8" s="1">
-        <v>22</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>189</v>
-      </c>
       <c r="J8" s="1" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>191</v>
+        <v>92</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>196</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>0</v>
-      </c>
-      <c r="R8" s="1">
-        <v>0</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T8" s="1">
-        <v>70.5</v>
+        <v>70.75</v>
       </c>
       <c r="U8" s="1">
-        <v>18.5</v>
+        <v>16.125</v>
       </c>
       <c r="V8" s="1">
-        <v>30.75</v>
+        <v>32</v>
       </c>
       <c r="W8" s="1">
         <v>6</v>
@@ -3521,16 +3427,16 @@
         <v>6</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Z8" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AA8" s="1">
         <v>6</v>
       </c>
       <c r="AB8" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AC8" s="1">
         <v>6</v>
@@ -3539,22 +3445,22 @@
         <v>5</v>
       </c>
       <c r="AE8" s="1" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="AF8" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG8" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH8" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AI8" s="1" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="AJ8" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AK8" s="1">
         <v>6</v>
@@ -3566,7 +3472,7 @@
         <v>6</v>
       </c>
       <c r="AN8" s="1" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="AO8" s="1">
         <v>5</v>
@@ -3575,55 +3481,70 @@
         <v>6</v>
       </c>
       <c r="AQ8" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR8" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS8" s="1" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="AU8" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV8" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AW8" s="1">
         <v>6</v>
       </c>
       <c r="AX8" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AY8" s="1" t="s">
-        <v>197</v>
+        <v>202</v>
+      </c>
+      <c r="AZ8" s="1">
+        <v>6</v>
+      </c>
+      <c r="BA8" s="1">
+        <v>6</v>
+      </c>
+      <c r="BB8" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC8" s="1">
+        <v>6</v>
+      </c>
+      <c r="BD8" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="BK8" s="1" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="BL8" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BM8" s="1" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="BN8" s="1">
         <v>6</v>
       </c>
       <c r="BO8" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BP8" s="1">
         <v>5</v>
       </c>
       <c r="BQ8" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="BT8" s="1">
-        <v>6</v>
-      </c>
-      <c r="BU8" s="1" t="s">
-        <v>198</v>
+        <v>94</v>
+      </c>
+      <c r="BR8" s="1">
+        <v>6</v>
+      </c>
+      <c r="BS8" s="1" t="s">
+        <v>204</v>
       </c>
       <c r="BV8" s="1">
         <v>5</v>
@@ -3635,96 +3556,114 @@
         <v>6</v>
       </c>
       <c r="BY8" s="1" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="BZ8" s="1" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="CA8" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CB8" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="CC8" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CD8" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="CE8" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CF8" s="1" t="s">
-        <v>124</v>
+        <v>159</v>
       </c>
       <c r="CG8" s="1" t="s">
-        <v>201</v>
+        <v>207</v>
+      </c>
+      <c r="CI8" s="1" t="s">
+        <v>208</v>
       </c>
       <c r="CJ8" s="1" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>42842.466001469904</v>
+        <v>42842.470008379634</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>109</v>
+        <v>210</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
       </c>
       <c r="D9" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>139</v>
+        <v>96</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="H9" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>205</v>
+        <v>92</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>213</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>0</v>
+      </c>
+      <c r="R9" s="1">
+        <v>0</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="T9" s="1">
-        <v>72</v>
+        <v>73.75</v>
       </c>
       <c r="U9" s="1">
-        <v>19.75</v>
+        <v>18.75</v>
       </c>
       <c r="V9" s="1">
-        <v>30</v>
+        <v>33.5</v>
       </c>
       <c r="W9" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X9" s="1">
         <v>6</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="Z9" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AA9" s="1">
         <v>6</v>
@@ -3739,19 +3678,19 @@
         <v>4</v>
       </c>
       <c r="AE9" s="1" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="AF9" s="1">
         <v>6</v>
       </c>
       <c r="AG9" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH9" s="1">
         <v>6</v>
       </c>
       <c r="AI9" s="1" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="AJ9" s="1">
         <v>6</v>
@@ -3765,23 +3704,26 @@
       <c r="AM9" s="1">
         <v>6</v>
       </c>
+      <c r="AN9" s="1" t="s">
+        <v>217</v>
+      </c>
       <c r="AO9" s="1">
         <v>6</v>
       </c>
       <c r="AP9" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ9" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR9" s="1">
         <v>6</v>
       </c>
       <c r="AS9" s="1" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AT9" s="1" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="AU9" s="1">
         <v>6</v>
@@ -3796,7 +3738,7 @@
         <v>6</v>
       </c>
       <c r="AY9" s="1" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="AZ9" s="1">
         <v>6</v>
@@ -3808,16 +3750,19 @@
         <v>6</v>
       </c>
       <c r="BC9" s="1">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="BD9" s="1" t="s">
+        <v>221</v>
       </c>
       <c r="BK9" s="1" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="BL9" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BM9" s="1" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="BN9" s="1">
         <v>6</v>
@@ -3826,16 +3771,16 @@
         <v>6</v>
       </c>
       <c r="BP9" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BQ9" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="BT9" s="1">
-        <v>6</v>
-      </c>
-      <c r="BU9" s="1" t="s">
-        <v>212</v>
+        <v>94</v>
+      </c>
+      <c r="BR9" s="1">
+        <v>5</v>
+      </c>
+      <c r="BS9" s="1" t="s">
+        <v>222</v>
       </c>
       <c r="BV9" s="1">
         <v>6</v>
@@ -3846,85 +3791,91 @@
       <c r="BX9" s="1">
         <v>6</v>
       </c>
-      <c r="BY9" s="1" t="s">
-        <v>213</v>
-      </c>
       <c r="BZ9" s="1" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="CA9" s="1">
         <v>6</v>
       </c>
+      <c r="CB9" s="1">
+        <v>5</v>
+      </c>
+      <c r="CC9" s="1">
+        <v>5</v>
+      </c>
       <c r="CD9" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CE9" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="CF9" s="1" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="CG9" s="1" t="s">
-        <v>215</v>
+        <v>224</v>
+      </c>
+      <c r="CH9" s="1" t="s">
+        <v>225</v>
       </c>
       <c r="CI9" s="1" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="CJ9" s="1" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>42842.468501157404</v>
+        <v>42842.668778692125</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="C10" s="1">
         <v>2</v>
       </c>
       <c r="D10" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>139</v>
+        <v>88</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>219</v>
+        <v>89</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>126</v>
+        <v>90</v>
       </c>
       <c r="H10" s="1">
         <v>24</v>
       </c>
       <c r="I10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="L10" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>221</v>
+        <v>88</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="T10" s="1">
-        <v>70.75</v>
+        <v>69.75</v>
       </c>
       <c r="U10" s="1">
-        <v>16.125</v>
+        <v>16.75</v>
       </c>
       <c r="V10" s="1">
-        <v>32</v>
+        <v>30.5</v>
       </c>
       <c r="W10" s="1">
         <v>6</v>
@@ -3933,7 +3884,7 @@
         <v>6</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="Z10" s="1">
         <v>6</v>
@@ -3942,31 +3893,31 @@
         <v>6</v>
       </c>
       <c r="AB10" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AC10" s="1">
         <v>6</v>
       </c>
       <c r="AD10" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE10" s="1" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="AF10" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG10" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH10" s="1">
         <v>6</v>
       </c>
       <c r="AI10" s="1" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="AJ10" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK10" s="1">
         <v>6</v>
@@ -3978,10 +3929,10 @@
         <v>6</v>
       </c>
       <c r="AN10" s="1" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="AO10" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP10" s="1">
         <v>6</v>
@@ -3993,13 +3944,13 @@
         <v>6</v>
       </c>
       <c r="AS10" s="1" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="AU10" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AV10" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW10" s="1">
         <v>6</v>
@@ -4008,7 +3959,7 @@
         <v>6</v>
       </c>
       <c r="AY10" s="1" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="AZ10" s="1">
         <v>6</v>
@@ -4022,17 +3973,14 @@
       <c r="BC10" s="1">
         <v>6</v>
       </c>
-      <c r="BD10" s="1" t="s">
-        <v>228</v>
-      </c>
       <c r="BK10" s="1" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="BL10" s="1">
         <v>6</v>
       </c>
       <c r="BM10" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="BN10" s="1">
         <v>6</v>
@@ -4041,138 +3989,96 @@
         <v>6</v>
       </c>
       <c r="BP10" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BQ10" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="BR10" s="1">
-        <v>6</v>
-      </c>
-      <c r="BS10" s="1" t="s">
-        <v>229</v>
+        <v>98</v>
+      </c>
+      <c r="BT10" s="1">
+        <v>6</v>
       </c>
       <c r="BV10" s="1">
         <v>5</v>
       </c>
       <c r="BW10" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BX10" s="1">
         <v>6</v>
       </c>
-      <c r="BY10" s="1" t="s">
-        <v>230</v>
-      </c>
       <c r="BZ10" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="CA10" s="1">
-        <v>5</v>
-      </c>
-      <c r="CB10" s="1">
-        <v>2</v>
-      </c>
-      <c r="CC10" s="1">
-        <v>5</v>
-      </c>
-      <c r="CD10" s="1">
-        <v>2</v>
-      </c>
-      <c r="CE10" s="1">
-        <v>3</v>
-      </c>
-      <c r="CF10" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="CG10" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="CI10" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="CJ10" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>42842.470008379634</v>
+        <v>42842.66993418982</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C11" s="1">
         <v>2</v>
       </c>
       <c r="D11" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>110</v>
+        <v>163</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>89</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H11" s="1">
         <v>22</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>236</v>
+        <v>91</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="M11" s="1">
-        <v>0.5</v>
+        <v>88</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>238</v>
       </c>
+      <c r="O11" s="1" t="s">
+        <v>239</v>
+      </c>
       <c r="P11" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>0</v>
-      </c>
-      <c r="R11" s="1">
-        <v>0</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T11" s="1">
-        <v>73.75</v>
+        <v>76.5</v>
       </c>
       <c r="U11" s="1">
-        <v>18.75</v>
+        <v>20</v>
       </c>
       <c r="V11" s="1">
-        <v>33.5</v>
+        <v>34.5</v>
       </c>
       <c r="W11" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X11" s="1">
         <v>6</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Z11" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AA11" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB11" s="1">
         <v>6</v>
@@ -4181,22 +4087,22 @@
         <v>6</v>
       </c>
       <c r="AD11" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE11" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AF11" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AG11" s="1">
         <v>5</v>
       </c>
       <c r="AH11" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AI11" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AJ11" s="1">
         <v>6</v>
@@ -4210,9 +4116,6 @@
       <c r="AM11" s="1">
         <v>6</v>
       </c>
-      <c r="AN11" s="1" t="s">
-        <v>242</v>
-      </c>
       <c r="AO11" s="1">
         <v>6</v>
       </c>
@@ -4223,100 +4126,100 @@
         <v>6</v>
       </c>
       <c r="AR11" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AS11" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="AT11" s="1" t="s">
+      <c r="AU11" s="1">
+        <v>6</v>
+      </c>
+      <c r="AV11" s="1">
+        <v>6</v>
+      </c>
+      <c r="AW11" s="1">
+        <v>6</v>
+      </c>
+      <c r="AX11" s="1">
+        <v>6</v>
+      </c>
+      <c r="AY11" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="AU11" s="1">
-        <v>6</v>
-      </c>
-      <c r="AV11" s="1">
-        <v>6</v>
-      </c>
-      <c r="AW11" s="1">
-        <v>6</v>
-      </c>
-      <c r="AX11" s="1">
-        <v>6</v>
-      </c>
-      <c r="AY11" s="1" t="s">
+      <c r="AZ11" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA11" s="1">
+        <v>6</v>
+      </c>
+      <c r="BB11" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC11" s="1">
+        <v>6</v>
+      </c>
+      <c r="BD11" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="AZ11" s="1">
-        <v>6</v>
-      </c>
-      <c r="BA11" s="1">
-        <v>6</v>
-      </c>
-      <c r="BB11" s="1">
-        <v>6</v>
-      </c>
-      <c r="BC11" s="1">
-        <v>5</v>
-      </c>
-      <c r="BD11" s="1" t="s">
+      <c r="BK11" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BL11" s="1">
+        <v>6</v>
+      </c>
+      <c r="BM11" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BN11" s="1">
+        <v>5</v>
+      </c>
+      <c r="BO11" s="1">
+        <v>5</v>
+      </c>
+      <c r="BP11" s="1">
+        <v>6</v>
+      </c>
+      <c r="BQ11" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BT11" s="1">
+        <v>4</v>
+      </c>
+      <c r="BU11" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="BK11" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="BL11" s="1">
-        <v>6</v>
-      </c>
-      <c r="BM11" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="BN11" s="1">
-        <v>6</v>
-      </c>
-      <c r="BO11" s="1">
-        <v>6</v>
-      </c>
-      <c r="BP11" s="1">
-        <v>5</v>
-      </c>
-      <c r="BQ11" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="BR11" s="1">
-        <v>5</v>
-      </c>
-      <c r="BS11" s="1" t="s">
+      <c r="BV11" s="1">
+        <v>5</v>
+      </c>
+      <c r="BW11" s="1">
+        <v>4</v>
+      </c>
+      <c r="BX11" s="1">
+        <v>6</v>
+      </c>
+      <c r="BY11" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="BV11" s="1">
-        <v>6</v>
-      </c>
-      <c r="BW11" s="1">
-        <v>6</v>
-      </c>
-      <c r="BX11" s="1">
-        <v>6</v>
       </c>
       <c r="BZ11" s="1" t="s">
         <v>248</v>
       </c>
       <c r="CA11" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CB11" s="1">
         <v>5</v>
       </c>
       <c r="CC11" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CD11" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CE11" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CF11" s="1" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="CG11" s="1" t="s">
         <v>249</v>
@@ -4333,7 +4236,7 @@
     </row>
     <row r="12" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>42842.668778692125</v>
+        <v>42842.674634664349</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>253</v>
@@ -4342,43 +4245,49 @@
         <v>2</v>
       </c>
       <c r="D12" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="F12" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="H12" s="1">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="J12" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="N12" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="K12" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>89</v>
+      <c r="O12" s="1" t="s">
+        <v>255</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T12" s="1">
-        <v>69.75</v>
+        <v>68</v>
       </c>
       <c r="U12" s="1">
-        <v>16.75</v>
+        <v>17.5</v>
       </c>
       <c r="V12" s="1">
         <v>30.5</v>
@@ -4390,10 +4299,10 @@
         <v>6</v>
       </c>
       <c r="Y12" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Z12" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AA12" s="1">
         <v>6</v>
@@ -4405,13 +4314,13 @@
         <v>6</v>
       </c>
       <c r="AD12" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE12" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AF12" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG12" s="1">
         <v>6</v>
@@ -4420,10 +4329,10 @@
         <v>6</v>
       </c>
       <c r="AI12" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AJ12" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK12" s="1">
         <v>6</v>
@@ -4433,9 +4342,6 @@
       </c>
       <c r="AM12" s="1">
         <v>6</v>
-      </c>
-      <c r="AN12" s="1" t="s">
-        <v>258</v>
       </c>
       <c r="AO12" s="1">
         <v>6</v>
@@ -4452,8 +4358,11 @@
       <c r="AS12" s="1" t="s">
         <v>259</v>
       </c>
+      <c r="AT12" s="1" t="s">
+        <v>260</v>
+      </c>
       <c r="AU12" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AV12" s="1">
         <v>6</v>
@@ -4462,10 +4371,10 @@
         <v>6</v>
       </c>
       <c r="AX12" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AY12" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AZ12" s="1">
         <v>6</v>
@@ -4480,31 +4389,28 @@
         <v>6</v>
       </c>
       <c r="BK12" s="1" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="BL12" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BM12" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="BN12" s="1">
-        <v>6</v>
+        <v>88</v>
       </c>
       <c r="BO12" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BP12" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BQ12" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="BT12" s="1">
+        <v>94</v>
+      </c>
+      <c r="BR12" s="1">
         <v>6</v>
       </c>
       <c r="BV12" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BW12" s="1">
         <v>6</v>
@@ -4512,300 +4418,321 @@
       <c r="BX12" s="1">
         <v>6</v>
       </c>
+      <c r="BY12" s="1" t="s">
+        <v>262</v>
+      </c>
       <c r="BZ12" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
+      </c>
+      <c r="CA12" s="1">
+        <v>6</v>
+      </c>
+      <c r="CB12" s="1">
+        <v>4</v>
+      </c>
+      <c r="CC12" s="1">
+        <v>5</v>
+      </c>
+      <c r="CD12" s="1">
+        <v>4</v>
+      </c>
+      <c r="CE12" s="1">
+        <v>4</v>
+      </c>
+      <c r="CF12" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CG12" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="CI12" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="CJ12" s="1" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>42842.66993418982</v>
+        <v>42842.675323877316</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="C13" s="1">
         <v>2</v>
       </c>
       <c r="D13" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="F13" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="H13" s="1">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>92</v>
+        <v>268</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="K13" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="T13" s="1">
+        <v>72.25</v>
+      </c>
+      <c r="U13" s="1">
+        <v>17.25</v>
+      </c>
+      <c r="V13" s="1">
+        <v>35.5</v>
+      </c>
+      <c r="W13" s="1">
+        <v>5</v>
+      </c>
+      <c r="X13" s="1">
+        <v>6</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>6</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>6</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>6</v>
+      </c>
+      <c r="AD13" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE13" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="AF13" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG13" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH13" s="1">
+        <v>6</v>
+      </c>
+      <c r="AI13" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="AJ13" s="1">
+        <v>6</v>
+      </c>
+      <c r="AK13" s="1">
+        <v>6</v>
+      </c>
+      <c r="AL13" s="1">
+        <v>6</v>
+      </c>
+      <c r="AM13" s="1">
+        <v>6</v>
+      </c>
+      <c r="AN13" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AO13" s="1">
+        <v>5</v>
+      </c>
+      <c r="AP13" s="1">
+        <v>6</v>
+      </c>
+      <c r="AQ13" s="1">
+        <v>6</v>
+      </c>
+      <c r="AR13" s="1">
+        <v>6</v>
+      </c>
+      <c r="AS13" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AU13" s="1">
+        <v>6</v>
+      </c>
+      <c r="AV13" s="1">
+        <v>5</v>
+      </c>
+      <c r="AW13" s="1">
+        <v>6</v>
+      </c>
+      <c r="AX13" s="1">
+        <v>3</v>
+      </c>
+      <c r="AY13" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="AZ13" s="1">
+        <v>4</v>
+      </c>
+      <c r="BA13" s="1">
+        <v>4</v>
+      </c>
+      <c r="BB13" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC13" s="1">
+        <v>3</v>
+      </c>
+      <c r="BD13" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="BK13" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BL13" s="1">
+        <v>6</v>
+      </c>
+      <c r="BM13" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BO13" s="1">
+        <v>6</v>
+      </c>
+      <c r="BP13" s="1">
+        <v>6</v>
+      </c>
+      <c r="BQ13" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="L13" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="T13" s="1">
-        <v>76.5</v>
-      </c>
-      <c r="U13" s="1">
-        <v>20</v>
-      </c>
-      <c r="V13" s="1">
-        <v>34.5</v>
-      </c>
-      <c r="W13" s="1">
-        <v>6</v>
-      </c>
-      <c r="X13" s="1">
-        <v>6</v>
-      </c>
-      <c r="Y13" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="Z13" s="1">
-        <v>6</v>
-      </c>
-      <c r="AA13" s="1">
-        <v>5</v>
-      </c>
-      <c r="AB13" s="1">
-        <v>6</v>
-      </c>
-      <c r="AC13" s="1">
-        <v>6</v>
-      </c>
-      <c r="AD13" s="1">
-        <v>6</v>
-      </c>
-      <c r="AE13" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="AF13" s="1">
-        <v>4</v>
-      </c>
-      <c r="AG13" s="1">
-        <v>5</v>
-      </c>
-      <c r="AH13" s="1">
-        <v>4</v>
-      </c>
-      <c r="AI13" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="AJ13" s="1">
-        <v>6</v>
-      </c>
-      <c r="AK13" s="1">
-        <v>6</v>
-      </c>
-      <c r="AL13" s="1">
-        <v>6</v>
-      </c>
-      <c r="AM13" s="1">
-        <v>6</v>
-      </c>
-      <c r="AO13" s="1">
-        <v>6</v>
-      </c>
-      <c r="AP13" s="1">
-        <v>6</v>
-      </c>
-      <c r="AQ13" s="1">
-        <v>6</v>
-      </c>
-      <c r="AR13" s="1">
-        <v>4</v>
-      </c>
-      <c r="AS13" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="AU13" s="1">
-        <v>6</v>
-      </c>
-      <c r="AV13" s="1">
-        <v>6</v>
-      </c>
-      <c r="AW13" s="1">
-        <v>6</v>
-      </c>
-      <c r="AX13" s="1">
-        <v>6</v>
-      </c>
-      <c r="AY13" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="AZ13" s="1">
-        <v>1</v>
-      </c>
-      <c r="BA13" s="1">
-        <v>6</v>
-      </c>
-      <c r="BB13" s="1">
-        <v>6</v>
-      </c>
-      <c r="BC13" s="1">
-        <v>6</v>
-      </c>
-      <c r="BD13" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="BK13" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="BL13" s="1">
-        <v>6</v>
-      </c>
-      <c r="BM13" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="BN13" s="1">
-        <v>5</v>
-      </c>
-      <c r="BO13" s="1">
-        <v>5</v>
-      </c>
-      <c r="BP13" s="1">
-        <v>6</v>
-      </c>
-      <c r="BQ13" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="BT13" s="1">
-        <v>4</v>
-      </c>
-      <c r="BU13" s="1" t="s">
-        <v>271</v>
+      <c r="BR13" s="1">
+        <v>3</v>
+      </c>
+      <c r="BS13" s="1" t="s">
+        <v>277</v>
       </c>
       <c r="BV13" s="1">
         <v>5</v>
       </c>
       <c r="BW13" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BX13" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BY13" s="1" t="s">
-        <v>272</v>
+        <v>205</v>
       </c>
       <c r="BZ13" s="1" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="CA13" s="1">
         <v>5</v>
       </c>
       <c r="CB13" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CC13" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="CD13" s="1">
         <v>6</v>
       </c>
       <c r="CE13" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CF13" s="1" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="CG13" s="1" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="CH13" s="1" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="CI13" s="1" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="CJ13" s="1" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
     </row>
     <row r="14" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>42842.674634664349</v>
+        <v>42843.546223715282</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="C14" s="1">
+        <v>4</v>
+      </c>
+      <c r="D14" s="1">
         <v>2</v>
       </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
       <c r="E14" s="1" t="s">
-        <v>110</v>
+        <v>163</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>219</v>
+        <v>88</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H14" s="1">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>111</v>
+        <v>164</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>205</v>
+        <v>284</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>280</v>
+        <v>88</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T14" s="1">
-        <v>68</v>
+        <v>64.25</v>
       </c>
       <c r="U14" s="1">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="V14" s="1">
-        <v>30.5</v>
+        <v>29.5</v>
       </c>
       <c r="W14" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X14" s="1">
         <v>6</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Z14" s="1">
         <v>5</v>
@@ -4820,13 +4747,10 @@
         <v>6</v>
       </c>
       <c r="AD14" s="1">
-        <v>5</v>
-      </c>
-      <c r="AE14" s="1" t="s">
-        <v>282</v>
+        <v>3</v>
       </c>
       <c r="AF14" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG14" s="1">
         <v>6</v>
@@ -4834,20 +4758,17 @@
       <c r="AH14" s="1">
         <v>6</v>
       </c>
-      <c r="AI14" s="1" t="s">
-        <v>283</v>
-      </c>
       <c r="AJ14" s="1">
         <v>6</v>
       </c>
       <c r="AK14" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AL14" s="1">
         <v>6</v>
       </c>
       <c r="AM14" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO14" s="1">
         <v>6</v>
@@ -4859,13 +4780,7 @@
         <v>6</v>
       </c>
       <c r="AR14" s="1">
-        <v>6</v>
-      </c>
-      <c r="AS14" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="AT14" s="1" t="s">
-        <v>285</v>
+        <v>5</v>
       </c>
       <c r="AU14" s="1">
         <v>6</v>
@@ -4877,417 +4792,435 @@
         <v>6</v>
       </c>
       <c r="AX14" s="1">
-        <v>3</v>
-      </c>
-      <c r="AY14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AZ14" s="1">
+        <v>6</v>
+      </c>
+      <c r="BA14" s="1">
+        <v>6</v>
+      </c>
+      <c r="BB14" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC14" s="1">
+        <v>5</v>
+      </c>
+      <c r="BK14" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BL14" s="1">
+        <v>4</v>
+      </c>
+      <c r="BM14" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BN14" s="1">
+        <v>6</v>
+      </c>
+      <c r="BO14" s="1">
+        <v>6</v>
+      </c>
+      <c r="BP14" s="1">
+        <v>6</v>
+      </c>
+      <c r="BQ14" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BR14" s="1">
+        <v>6</v>
+      </c>
+      <c r="BV14" s="1">
+        <v>6</v>
+      </c>
+      <c r="BW14" s="1">
+        <v>5</v>
+      </c>
+      <c r="BX14" s="1">
+        <v>6</v>
+      </c>
+      <c r="BY14" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="AZ14" s="1">
-        <v>6</v>
-      </c>
-      <c r="BA14" s="1">
-        <v>6</v>
-      </c>
-      <c r="BB14" s="1">
-        <v>6</v>
-      </c>
-      <c r="BC14" s="1">
-        <v>6</v>
-      </c>
-      <c r="BK14" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="BL14" s="1">
-        <v>5</v>
-      </c>
-      <c r="BM14" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="BO14" s="1">
-        <v>5</v>
-      </c>
-      <c r="BP14" s="1">
-        <v>5</v>
-      </c>
-      <c r="BQ14" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="BR14" s="1">
-        <v>6</v>
-      </c>
-      <c r="BV14" s="1">
-        <v>6</v>
-      </c>
-      <c r="BW14" s="1">
-        <v>6</v>
-      </c>
-      <c r="BX14" s="1">
-        <v>6</v>
-      </c>
-      <c r="BY14" s="1" t="s">
+      <c r="BZ14" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="BZ14" s="1" t="s">
+      <c r="CA14" s="1">
+        <v>5</v>
+      </c>
+      <c r="CB14" s="1">
+        <v>5</v>
+      </c>
+      <c r="CC14" s="1">
+        <v>2</v>
+      </c>
+      <c r="CD14" s="1">
+        <v>5</v>
+      </c>
+      <c r="CE14" s="1">
+        <v>5</v>
+      </c>
+      <c r="CF14" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CJ14" s="1" t="s">
         <v>288</v>
-      </c>
-      <c r="CA14" s="1">
-        <v>6</v>
-      </c>
-      <c r="CB14" s="1">
-        <v>4</v>
-      </c>
-      <c r="CC14" s="1">
-        <v>5</v>
-      </c>
-      <c r="CD14" s="1">
-        <v>4</v>
-      </c>
-      <c r="CE14" s="1">
-        <v>4</v>
-      </c>
-      <c r="CF14" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="CG14" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="CI14" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="CJ14" s="1" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="15" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>42842.675323877316</v>
+        <v>42843.54772732639</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C15" s="1">
+        <v>4</v>
+      </c>
+      <c r="D15" s="1">
+        <v>4</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H15" s="1">
+        <v>24</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="M15" s="1">
+        <v>8</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>0</v>
+      </c>
+      <c r="R15" s="1">
+        <v>0</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="T15" s="1">
+        <v>70</v>
+      </c>
+      <c r="U15" s="1">
+        <v>18.25</v>
+      </c>
+      <c r="V15" s="1">
+        <v>33.125</v>
+      </c>
+      <c r="W15" s="1">
+        <v>5</v>
+      </c>
+      <c r="X15" s="1">
+        <v>6</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>6</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>6</v>
+      </c>
+      <c r="AC15" s="1">
+        <v>6</v>
+      </c>
+      <c r="AD15" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE15" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C15" s="1">
-        <v>2</v>
-      </c>
-      <c r="D15" s="1">
-        <v>2</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H15" s="1">
-        <v>18</v>
-      </c>
-      <c r="I15" s="1" t="s">
+      <c r="AF15" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG15" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH15" s="1">
+        <v>6</v>
+      </c>
+      <c r="AI15" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="K15" s="1" t="s">
+      <c r="AJ15" s="1">
+        <v>5</v>
+      </c>
+      <c r="AK15" s="1">
+        <v>6</v>
+      </c>
+      <c r="AL15" s="1">
+        <v>5</v>
+      </c>
+      <c r="AM15" s="1">
+        <v>4</v>
+      </c>
+      <c r="AN15" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="L15" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="S15" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="T15" s="1">
-        <v>72.25</v>
-      </c>
-      <c r="U15" s="1">
-        <v>17.25</v>
-      </c>
-      <c r="V15" s="1">
-        <v>35.5</v>
-      </c>
-      <c r="W15" s="1">
-        <v>5</v>
-      </c>
-      <c r="X15" s="1">
-        <v>6</v>
-      </c>
-      <c r="Y15" s="1" t="s">
+      <c r="AO15" s="1">
+        <v>5</v>
+      </c>
+      <c r="AP15" s="1">
+        <v>6</v>
+      </c>
+      <c r="AQ15" s="1">
+        <v>5</v>
+      </c>
+      <c r="AR15" s="1">
+        <v>6</v>
+      </c>
+      <c r="AS15" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="Z15" s="1">
-        <v>6</v>
-      </c>
-      <c r="AA15" s="1">
-        <v>6</v>
-      </c>
-      <c r="AB15" s="1">
+      <c r="AT15" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="AU15" s="1">
+        <v>5</v>
+      </c>
+      <c r="AV15" s="1">
+        <v>4</v>
+      </c>
+      <c r="AW15" s="1">
+        <v>6</v>
+      </c>
+      <c r="AX15" s="1">
+        <v>5</v>
+      </c>
+      <c r="AY15" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="AZ15" s="1">
+        <v>4</v>
+      </c>
+      <c r="BA15" s="1">
+        <v>6</v>
+      </c>
+      <c r="BB15" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC15" s="1">
+        <v>4</v>
+      </c>
+      <c r="BD15" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="BK15" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BL15" s="1">
+        <v>4</v>
+      </c>
+      <c r="BM15" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BN15" s="1">
+        <v>4</v>
+      </c>
+      <c r="BO15" s="1">
+        <v>5</v>
+      </c>
+      <c r="BP15" s="1">
+        <v>4</v>
+      </c>
+      <c r="BQ15" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BT15" s="1">
+        <v>6</v>
+      </c>
+      <c r="BV15" s="1">
+        <v>5</v>
+      </c>
+      <c r="BW15" s="1">
+        <v>5</v>
+      </c>
+      <c r="BX15" s="1">
+        <v>6</v>
+      </c>
+      <c r="BY15" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="BZ15" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="CA15" s="1">
+        <v>5</v>
+      </c>
+      <c r="CB15" s="1">
         <v>3</v>
       </c>
-      <c r="AC15" s="1">
-        <v>6</v>
-      </c>
-      <c r="AD15" s="1">
-        <v>4</v>
-      </c>
-      <c r="AE15" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="AF15" s="1">
+      <c r="CC15" s="1">
+        <v>5</v>
+      </c>
+      <c r="CD15" s="1">
         <v>3</v>
       </c>
-      <c r="AG15" s="1">
-        <v>5</v>
-      </c>
-      <c r="AH15" s="1">
-        <v>6</v>
-      </c>
-      <c r="AI15" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="AJ15" s="1">
-        <v>6</v>
-      </c>
-      <c r="AK15" s="1">
-        <v>6</v>
-      </c>
-      <c r="AL15" s="1">
-        <v>6</v>
-      </c>
-      <c r="AM15" s="1">
-        <v>6</v>
-      </c>
-      <c r="AN15" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="AO15" s="1">
-        <v>5</v>
-      </c>
-      <c r="AP15" s="1">
-        <v>6</v>
-      </c>
-      <c r="AQ15" s="1">
-        <v>6</v>
-      </c>
-      <c r="AR15" s="1">
-        <v>6</v>
-      </c>
-      <c r="AS15" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="AU15" s="1">
-        <v>6</v>
-      </c>
-      <c r="AV15" s="1">
-        <v>5</v>
-      </c>
-      <c r="AW15" s="1">
-        <v>6</v>
-      </c>
-      <c r="AX15" s="1">
-        <v>3</v>
-      </c>
-      <c r="AY15" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="AZ15" s="1">
-        <v>4</v>
-      </c>
-      <c r="BA15" s="1">
-        <v>4</v>
-      </c>
-      <c r="BB15" s="1">
-        <v>6</v>
-      </c>
-      <c r="BC15" s="1">
-        <v>3</v>
-      </c>
-      <c r="BD15" s="1" t="s">
+      <c r="CE15" s="1">
+        <v>4</v>
+      </c>
+      <c r="CF15" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="CG15" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="BK15" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="BL15" s="1">
-        <v>6</v>
-      </c>
-      <c r="BM15" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="BO15" s="1">
-        <v>6</v>
-      </c>
-      <c r="BP15" s="1">
-        <v>6</v>
-      </c>
-      <c r="BQ15" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="BR15" s="1">
-        <v>3</v>
-      </c>
-      <c r="BS15" s="1" t="s">
+      <c r="CI15" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="BV15" s="1">
-        <v>5</v>
-      </c>
-      <c r="BW15" s="1">
-        <v>5</v>
-      </c>
-      <c r="BX15" s="1">
-        <v>4</v>
-      </c>
-      <c r="BY15" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="BZ15" s="1" t="s">
+      <c r="CJ15" s="1" t="s">
         <v>303</v>
-      </c>
-      <c r="CA15" s="1">
-        <v>5</v>
-      </c>
-      <c r="CB15" s="1">
-        <v>6</v>
-      </c>
-      <c r="CC15" s="1">
-        <v>4</v>
-      </c>
-      <c r="CD15" s="1">
-        <v>6</v>
-      </c>
-      <c r="CE15" s="1">
-        <v>4</v>
-      </c>
-      <c r="CF15" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="CG15" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="CH15" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="CI15" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="CJ15" s="1" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="16" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <v>42843.546223715282</v>
+        <v>42843.548447349538</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C16" s="1">
         <v>4</v>
       </c>
       <c r="D16" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>89</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H16" s="1">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="K16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="T16" s="1">
+        <v>68.5</v>
+      </c>
+      <c r="U16" s="1">
+        <v>19.75</v>
+      </c>
+      <c r="V16" s="1">
+        <v>30.5</v>
+      </c>
+      <c r="W16" s="1">
+        <v>6</v>
+      </c>
+      <c r="X16" s="1">
+        <v>6</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>6</v>
+      </c>
+      <c r="AA16" s="1">
+        <v>6</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>6</v>
+      </c>
+      <c r="AC16" s="1">
+        <v>6</v>
+      </c>
+      <c r="AD16" s="1">
+        <v>6</v>
+      </c>
+      <c r="AE16" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="AF16" s="1">
+        <v>6</v>
+      </c>
+      <c r="AG16" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH16" s="1">
+        <v>6</v>
+      </c>
+      <c r="AI16" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="AJ16" s="1">
+        <v>5</v>
+      </c>
+      <c r="AK16" s="1">
+        <v>6</v>
+      </c>
+      <c r="AL16" s="1">
+        <v>6</v>
+      </c>
+      <c r="AM16" s="1">
+        <v>6</v>
+      </c>
+      <c r="AN16" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="AO16" s="1">
+        <v>6</v>
+      </c>
+      <c r="AP16" s="1">
+        <v>6</v>
+      </c>
+      <c r="AQ16" s="1">
+        <v>5</v>
+      </c>
+      <c r="AR16" s="1">
+        <v>6</v>
+      </c>
+      <c r="AS16" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="L16" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="S16" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="T16" s="1">
-        <v>64.25</v>
-      </c>
-      <c r="U16" s="1">
-        <v>18</v>
-      </c>
-      <c r="V16" s="1">
-        <v>29.5</v>
-      </c>
-      <c r="W16" s="1">
-        <v>5</v>
-      </c>
-      <c r="X16" s="1">
-        <v>6</v>
-      </c>
-      <c r="Y16" s="1" t="s">
+      <c r="AT16" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="Z16" s="1">
-        <v>5</v>
-      </c>
-      <c r="AA16" s="1">
-        <v>6</v>
-      </c>
-      <c r="AB16" s="1">
-        <v>6</v>
-      </c>
-      <c r="AC16" s="1">
-        <v>6</v>
-      </c>
-      <c r="AD16" s="1">
-        <v>3</v>
-      </c>
-      <c r="AF16" s="1">
-        <v>6</v>
-      </c>
-      <c r="AG16" s="1">
-        <v>6</v>
-      </c>
-      <c r="AH16" s="1">
-        <v>6</v>
-      </c>
-      <c r="AJ16" s="1">
-        <v>6</v>
-      </c>
-      <c r="AK16" s="1">
-        <v>5</v>
-      </c>
-      <c r="AL16" s="1">
-        <v>6</v>
-      </c>
-      <c r="AM16" s="1">
-        <v>5</v>
-      </c>
-      <c r="AO16" s="1">
-        <v>6</v>
-      </c>
-      <c r="AP16" s="1">
-        <v>6</v>
-      </c>
-      <c r="AQ16" s="1">
-        <v>6</v>
-      </c>
-      <c r="AR16" s="1">
-        <v>5</v>
-      </c>
       <c r="AU16" s="1">
         <v>6</v>
       </c>
@@ -5298,10 +5231,13 @@
         <v>6</v>
       </c>
       <c r="AX16" s="1">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="AY16" s="1" t="s">
+        <v>311</v>
       </c>
       <c r="AZ16" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA16" s="1">
         <v>6</v>
@@ -5310,144 +5246,150 @@
         <v>6</v>
       </c>
       <c r="BC16" s="1">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="BD16" s="1" t="s">
+        <v>312</v>
       </c>
       <c r="BK16" s="1" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="BL16" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BM16" s="1" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="BN16" s="1">
         <v>6</v>
       </c>
       <c r="BO16" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BP16" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BQ16" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="BR16" s="1">
-        <v>6</v>
+        <v>98</v>
+      </c>
+      <c r="BT16" s="1">
+        <v>6</v>
+      </c>
+      <c r="BU16" s="1" t="s">
+        <v>313</v>
       </c>
       <c r="BV16" s="1">
         <v>6</v>
       </c>
       <c r="BW16" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BX16" s="1">
         <v>6</v>
       </c>
-      <c r="BY16" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="BZ16" s="1" t="s">
-        <v>312</v>
-      </c>
       <c r="CA16" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CB16" s="1">
         <v>5</v>
       </c>
       <c r="CC16" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="CD16" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CE16" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CF16" s="1" t="s">
-        <v>124</v>
+        <v>99</v>
+      </c>
+      <c r="CG16" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="CH16" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="CI16" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="CJ16" s="1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="17" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
-        <v>42843.54772732639</v>
+        <v>42843.549888958332</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="C17" s="1">
         <v>4</v>
       </c>
       <c r="D17" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>219</v>
+        <v>89</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H17" s="1">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>92</v>
+        <v>164</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>205</v>
+        <v>319</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="M17" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>315</v>
+        <v>320</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>321</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q17" s="1">
-        <v>0</v>
-      </c>
-      <c r="R17" s="1">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T17" s="1">
-        <v>70</v>
+        <v>71.125</v>
       </c>
       <c r="U17" s="1">
-        <v>18.25</v>
+        <v>16.75</v>
       </c>
       <c r="V17" s="1">
-        <v>33.125</v>
+        <v>34.25</v>
       </c>
       <c r="W17" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X17" s="1">
         <v>6</v>
       </c>
       <c r="Y17" s="1" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="Z17" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AA17" s="1">
         <v>6</v>
@@ -5459,73 +5401,70 @@
         <v>6</v>
       </c>
       <c r="AD17" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE17" s="1" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="AF17" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG17" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AH17" s="1">
         <v>6</v>
       </c>
       <c r="AI17" s="1" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="AJ17" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK17" s="1">
         <v>6</v>
       </c>
       <c r="AL17" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AM17" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AN17" s="1" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="AO17" s="1">
         <v>5</v>
       </c>
       <c r="AP17" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AQ17" s="1">
         <v>5</v>
       </c>
       <c r="AR17" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS17" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="AT17" s="1" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="AU17" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV17" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW17" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX17" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY17" s="1" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="AZ17" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BA17" s="1">
         <v>6</v>
@@ -5534,356 +5473,359 @@
         <v>6</v>
       </c>
       <c r="BC17" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BD17" s="1" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="BK17" s="1" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="BL17" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BM17" s="1" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="BN17" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BO17" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BP17" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BQ17" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="BT17" s="1">
-        <v>6</v>
+        <v>94</v>
+      </c>
+      <c r="BR17" s="1">
+        <v>6</v>
+      </c>
+      <c r="BS17" s="1" t="s">
+        <v>329</v>
       </c>
       <c r="BV17" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BW17" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BX17" s="1">
         <v>6</v>
       </c>
       <c r="BY17" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="BZ17" s="1" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="CA17" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CB17" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="CC17" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CD17" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="CE17" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="CF17" s="1" t="s">
-        <v>184</v>
+        <v>99</v>
       </c>
       <c r="CG17" s="1" t="s">
-        <v>326</v>
+        <v>331</v>
+      </c>
+      <c r="CH17" s="1" t="s">
+        <v>332</v>
       </c>
       <c r="CI17" s="1" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="CJ17" s="1" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
     </row>
     <row r="18" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
-        <v>42843.548447349538</v>
+        <v>42843.810439733796</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="C18" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H18" s="1">
+        <v>20</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="T18" s="1">
+        <v>66</v>
+      </c>
+      <c r="U18" s="1">
+        <v>17</v>
+      </c>
+      <c r="V18" s="1">
+        <v>29.25</v>
+      </c>
+      <c r="W18" s="1">
+        <v>6</v>
+      </c>
+      <c r="X18" s="1">
+        <v>6</v>
+      </c>
+      <c r="Y18" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>6</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>6</v>
+      </c>
+      <c r="AB18" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC18" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD18" s="1">
+        <v>6</v>
+      </c>
+      <c r="AE18" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="AF18" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG18" s="1">
+        <v>6</v>
+      </c>
+      <c r="AH18" s="1">
+        <v>5</v>
+      </c>
+      <c r="AI18" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="AJ18" s="1">
+        <v>6</v>
+      </c>
+      <c r="AK18" s="1">
+        <v>6</v>
+      </c>
+      <c r="AL18" s="1">
+        <v>6</v>
+      </c>
+      <c r="AM18" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN18" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="AO18" s="1">
+        <v>6</v>
+      </c>
+      <c r="AP18" s="1">
+        <v>4</v>
+      </c>
+      <c r="AQ18" s="1">
+        <v>5</v>
+      </c>
+      <c r="AR18" s="1">
+        <v>5</v>
+      </c>
+      <c r="AS18" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="AT18" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AU18" s="1">
+        <v>5</v>
+      </c>
+      <c r="AV18" s="1">
+        <v>4</v>
+      </c>
+      <c r="AW18" s="1">
+        <v>4</v>
+      </c>
+      <c r="AX18" s="1">
+        <v>5</v>
+      </c>
+      <c r="AY18" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="AZ18" s="1">
+        <v>5</v>
+      </c>
+      <c r="BA18" s="1">
+        <v>6</v>
+      </c>
+      <c r="BB18" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC18" s="1">
+        <v>6</v>
+      </c>
+      <c r="BD18" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="BK18" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BL18" s="1">
+        <v>6</v>
+      </c>
+      <c r="BM18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BO18" s="1">
+        <v>6</v>
+      </c>
+      <c r="BP18" s="1">
+        <v>6</v>
+      </c>
+      <c r="BQ18" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BR18" s="1">
+        <v>6</v>
+      </c>
+      <c r="BS18" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="BV18" s="1">
+        <v>6</v>
+      </c>
+      <c r="BW18" s="1">
+        <v>6</v>
+      </c>
+      <c r="BX18" s="1">
+        <v>6</v>
+      </c>
+      <c r="BY18" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="BZ18" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="CA18" s="1">
+        <v>6</v>
+      </c>
+      <c r="CB18" s="1">
+        <v>6</v>
+      </c>
+      <c r="CC18" s="1">
+        <v>6</v>
+      </c>
+      <c r="CD18" s="1">
+        <v>6</v>
+      </c>
+      <c r="CE18" s="1">
         <v>3</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H18" s="1">
-        <v>22</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="T18" s="1">
-        <v>68.5</v>
-      </c>
-      <c r="U18" s="1">
-        <v>19.75</v>
-      </c>
-      <c r="V18" s="1">
-        <v>30.5</v>
-      </c>
-      <c r="W18" s="1">
-        <v>6</v>
-      </c>
-      <c r="X18" s="1">
-        <v>6</v>
-      </c>
-      <c r="Y18" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="Z18" s="1">
-        <v>6</v>
-      </c>
-      <c r="AA18" s="1">
-        <v>6</v>
-      </c>
-      <c r="AB18" s="1">
-        <v>6</v>
-      </c>
-      <c r="AC18" s="1">
-        <v>6</v>
-      </c>
-      <c r="AD18" s="1">
-        <v>6</v>
-      </c>
-      <c r="AE18" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="AF18" s="1">
-        <v>6</v>
-      </c>
-      <c r="AG18" s="1">
-        <v>5</v>
-      </c>
-      <c r="AH18" s="1">
-        <v>6</v>
-      </c>
-      <c r="AI18" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="AJ18" s="1">
-        <v>5</v>
-      </c>
-      <c r="AK18" s="1">
-        <v>6</v>
-      </c>
-      <c r="AL18" s="1">
-        <v>6</v>
-      </c>
-      <c r="AM18" s="1">
-        <v>6</v>
-      </c>
-      <c r="AN18" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="AO18" s="1">
-        <v>6</v>
-      </c>
-      <c r="AP18" s="1">
-        <v>6</v>
-      </c>
-      <c r="AQ18" s="1">
-        <v>5</v>
-      </c>
-      <c r="AR18" s="1">
-        <v>6</v>
-      </c>
-      <c r="AS18" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="AT18" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="AU18" s="1">
-        <v>6</v>
-      </c>
-      <c r="AV18" s="1">
-        <v>6</v>
-      </c>
-      <c r="AW18" s="1">
-        <v>6</v>
-      </c>
-      <c r="AX18" s="1">
-        <v>5</v>
-      </c>
-      <c r="AY18" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="AZ18" s="1">
-        <v>5</v>
-      </c>
-      <c r="BA18" s="1">
-        <v>6</v>
-      </c>
-      <c r="BB18" s="1">
-        <v>6</v>
-      </c>
-      <c r="BC18" s="1">
-        <v>6</v>
-      </c>
-      <c r="BD18" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="BK18" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="BL18" s="1">
-        <v>5</v>
-      </c>
-      <c r="BM18" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="BN18" s="1">
-        <v>6</v>
-      </c>
-      <c r="BO18" s="1">
-        <v>5</v>
-      </c>
-      <c r="BP18" s="1">
-        <v>4</v>
-      </c>
-      <c r="BQ18" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="BT18" s="1">
-        <v>6</v>
-      </c>
-      <c r="BU18" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="BV18" s="1">
-        <v>6</v>
-      </c>
-      <c r="BW18" s="1">
-        <v>2</v>
-      </c>
-      <c r="BX18" s="1">
-        <v>6</v>
-      </c>
-      <c r="CA18" s="1">
-        <v>4</v>
-      </c>
-      <c r="CB18" s="1">
-        <v>5</v>
-      </c>
-      <c r="CC18" s="1">
-        <v>6</v>
-      </c>
-      <c r="CD18" s="1">
-        <v>4</v>
-      </c>
-      <c r="CE18" s="1">
-        <v>4</v>
-      </c>
       <c r="CF18" s="1" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="CG18" s="1" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="CH18" s="1" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="CI18" s="1" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="CJ18" s="1" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
     </row>
     <row r="19" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
-        <v>42843.549888958332</v>
+        <v>42843.817564513884</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="C19" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>188</v>
+        <v>114</v>
       </c>
       <c r="F19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="H19" s="1">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>189</v>
+        <v>97</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>220</v>
+        <v>352</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="M19" s="1">
-        <v>1</v>
+        <v>88</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T19" s="1">
-        <v>71.125</v>
+        <v>70</v>
       </c>
       <c r="U19" s="1">
-        <v>16.75</v>
+        <v>17</v>
       </c>
       <c r="V19" s="1">
-        <v>34.25</v>
+        <v>32</v>
       </c>
       <c r="W19" s="1">
         <v>6</v>
@@ -5892,13 +5834,13 @@
         <v>6</v>
       </c>
       <c r="Y19" s="1" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="Z19" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AA19" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AB19" s="1">
         <v>6</v>
@@ -5907,13 +5849,13 @@
         <v>6</v>
       </c>
       <c r="AD19" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE19" s="1" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="AF19" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG19" s="1">
         <v>6</v>
@@ -5922,58 +5864,61 @@
         <v>6</v>
       </c>
       <c r="AI19" s="1" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="AJ19" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AK19" s="1">
         <v>6</v>
       </c>
       <c r="AL19" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AM19" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AN19" s="1" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="AO19" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP19" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ19" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AR19" s="1">
         <v>5</v>
       </c>
       <c r="AS19" s="1" t="s">
-        <v>351</v>
+        <v>360</v>
+      </c>
+      <c r="AT19" s="1" t="s">
+        <v>361</v>
       </c>
       <c r="AU19" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AV19" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AW19" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX19" s="1">
         <v>4</v>
       </c>
       <c r="AY19" s="1" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="AZ19" s="1">
         <v>6</v>
       </c>
       <c r="BA19" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB19" s="1">
         <v>6</v>
@@ -5982,34 +5927,31 @@
         <v>6</v>
       </c>
       <c r="BD19" s="1" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="BK19" s="1" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="BL19" s="1">
         <v>6</v>
       </c>
       <c r="BM19" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="BN19" s="1">
-        <v>6</v>
+        <v>88</v>
       </c>
       <c r="BO19" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BP19" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BQ19" s="1" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="BR19" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BS19" s="1" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="BV19" s="1">
         <v>6</v>
@@ -6018,10 +5960,7 @@
         <v>6</v>
       </c>
       <c r="BX19" s="1">
-        <v>6</v>
-      </c>
-      <c r="BY19" s="1" t="s">
-        <v>355</v>
+        <v>5</v>
       </c>
       <c r="CA19" s="1">
         <v>6</v>
@@ -6039,66 +5978,72 @@
         <v>6</v>
       </c>
       <c r="CF19" s="1" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="CG19" s="1" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="CH19" s="1" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="CI19" s="1" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="CJ19" s="1" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
     </row>
     <row r="20" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
-        <v>42843.810439733796</v>
+        <v>42843.8196034375</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="C20" s="1">
         <v>5</v>
       </c>
       <c r="D20" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>89</v>
+        <v>370</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="H20" s="1">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>361</v>
+        <v>229</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>94</v>
+        <v>166</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>372</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T20" s="1">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="U20" s="1">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="V20" s="1">
         <v>29.25</v>
@@ -6107,40 +6052,40 @@
         <v>6</v>
       </c>
       <c r="X20" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Y20" s="1" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="Z20" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AA20" s="1">
         <v>6</v>
       </c>
       <c r="AB20" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC20" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD20" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE20" s="1" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="AF20" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AG20" s="1">
         <v>6</v>
       </c>
       <c r="AH20" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI20" s="1" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="AJ20" s="1">
         <v>6</v>
@@ -6152,46 +6097,40 @@
         <v>6</v>
       </c>
       <c r="AM20" s="1">
-        <v>5</v>
-      </c>
-      <c r="AN20" s="1" t="s">
-        <v>365</v>
+        <v>6</v>
       </c>
       <c r="AO20" s="1">
         <v>6</v>
       </c>
       <c r="AP20" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AQ20" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR20" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS20" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="AT20" s="1" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="AU20" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV20" s="1">
         <v>4</v>
       </c>
       <c r="AW20" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX20" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY20" s="1" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="AZ20" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA20" s="1">
         <v>6</v>
@@ -6203,31 +6142,34 @@
         <v>6</v>
       </c>
       <c r="BD20" s="1" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="BK20" s="1" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="BL20" s="1">
         <v>6</v>
       </c>
       <c r="BM20" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
+      </c>
+      <c r="BN20" s="1">
+        <v>5</v>
       </c>
       <c r="BO20" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BP20" s="1">
         <v>6</v>
       </c>
       <c r="BQ20" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="BR20" s="1">
-        <v>6</v>
-      </c>
-      <c r="BS20" s="1" t="s">
-        <v>370</v>
+        <v>98</v>
+      </c>
+      <c r="BT20" s="1">
+        <v>6</v>
+      </c>
+      <c r="BU20" s="1" t="s">
+        <v>379</v>
       </c>
       <c r="BV20" s="1">
         <v>6</v>
@@ -6236,132 +6178,120 @@
         <v>6</v>
       </c>
       <c r="BX20" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BY20" s="1" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="BZ20" s="1" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="CA20" s="1">
         <v>6</v>
       </c>
       <c r="CB20" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="CC20" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="CD20" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="CE20" s="1">
         <v>3</v>
       </c>
       <c r="CF20" s="1" t="s">
-        <v>124</v>
+        <v>159</v>
       </c>
       <c r="CG20" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="CH20" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="CI20" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="CJ20" s="1" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
     </row>
     <row r="21" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
-        <v>42843.817564513884</v>
+        <v>42843.822506608798</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="C21" s="1">
         <v>5</v>
       </c>
       <c r="D21" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>89</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H21" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>111</v>
+        <v>383</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>377</v>
+        <v>352</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>379</v>
+        <v>354</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="S21" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T21" s="1">
-        <v>70</v>
+        <v>74.5</v>
       </c>
       <c r="U21" s="1">
-        <v>17</v>
+        <v>19.25</v>
       </c>
       <c r="V21" s="1">
-        <v>32</v>
+        <v>32.5</v>
       </c>
       <c r="W21" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="X21" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Y21" s="1" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="Z21" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AA21" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AB21" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AC21" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AD21" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE21" s="1" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="AF21" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AG21" s="1">
         <v>6</v>
@@ -6370,494 +6300,509 @@
         <v>6</v>
       </c>
       <c r="AI21" s="1" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="AJ21" s="1">
+        <v>6</v>
+      </c>
+      <c r="AK21" s="1">
+        <v>6</v>
+      </c>
+      <c r="AL21" s="1">
+        <v>6</v>
+      </c>
+      <c r="AM21" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN21" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="AO21" s="1">
+        <v>5</v>
+      </c>
+      <c r="AP21" s="1">
+        <v>6</v>
+      </c>
+      <c r="AQ21" s="1">
+        <v>5</v>
+      </c>
+      <c r="AR21" s="1">
+        <v>6</v>
+      </c>
+      <c r="AS21" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="AT21" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="AU21" s="1">
+        <v>5</v>
+      </c>
+      <c r="AV21" s="1">
+        <v>5</v>
+      </c>
+      <c r="AW21" s="1">
+        <v>6</v>
+      </c>
+      <c r="AX21" s="1">
+        <v>6</v>
+      </c>
+      <c r="AY21" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="AZ21" s="1">
+        <v>4</v>
+      </c>
+      <c r="BA21" s="1">
+        <v>6</v>
+      </c>
+      <c r="BB21" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC21" s="1">
+        <v>6</v>
+      </c>
+      <c r="BD21" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="BK21" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BL21" s="1">
+        <v>6</v>
+      </c>
+      <c r="BM21" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BN21" s="1">
+        <v>6</v>
+      </c>
+      <c r="BO21" s="1">
+        <v>5</v>
+      </c>
+      <c r="BP21" s="1">
+        <v>5</v>
+      </c>
+      <c r="BQ21" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BT21" s="1">
+        <v>6</v>
+      </c>
+      <c r="BU21" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="BV21" s="1">
+        <v>6</v>
+      </c>
+      <c r="BW21" s="1">
+        <v>5</v>
+      </c>
+      <c r="BX21" s="1">
+        <v>6</v>
+      </c>
+      <c r="BY21" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="BZ21" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="CA21" s="1">
+        <v>6</v>
+      </c>
+      <c r="CB21" s="1">
         <v>3</v>
       </c>
-      <c r="AK21" s="1">
-        <v>6</v>
-      </c>
-      <c r="AL21" s="1">
-        <v>5</v>
-      </c>
-      <c r="AM21" s="1">
+      <c r="CC21" s="1">
+        <v>6</v>
+      </c>
+      <c r="CD21" s="1">
         <v>3</v>
       </c>
-      <c r="AN21" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="AO21" s="1">
-        <v>6</v>
-      </c>
-      <c r="AP21" s="1">
-        <v>6</v>
-      </c>
-      <c r="AQ21" s="1">
-        <v>3</v>
-      </c>
-      <c r="AR21" s="1">
-        <v>5</v>
-      </c>
-      <c r="AS21" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="AT21" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="AU21" s="1">
-        <v>4</v>
-      </c>
-      <c r="AV21" s="1">
-        <v>4</v>
-      </c>
-      <c r="AW21" s="1">
-        <v>6</v>
-      </c>
-      <c r="AX21" s="1">
-        <v>4</v>
-      </c>
-      <c r="AY21" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="AZ21" s="1">
-        <v>6</v>
-      </c>
-      <c r="BA21" s="1">
-        <v>5</v>
-      </c>
-      <c r="BB21" s="1">
-        <v>6</v>
-      </c>
-      <c r="BC21" s="1">
-        <v>6</v>
-      </c>
-      <c r="BD21" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="BK21" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="BL21" s="1">
-        <v>6</v>
-      </c>
-      <c r="BM21" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="BO21" s="1">
-        <v>5</v>
-      </c>
-      <c r="BP21" s="1">
-        <v>5</v>
-      </c>
-      <c r="BQ21" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="BR21" s="1">
-        <v>5</v>
-      </c>
-      <c r="BS21" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="BV21" s="1">
-        <v>6</v>
-      </c>
-      <c r="BW21" s="1">
-        <v>6</v>
-      </c>
-      <c r="BX21" s="1">
-        <v>5</v>
-      </c>
-      <c r="CA21" s="1">
-        <v>6</v>
-      </c>
-      <c r="CB21" s="1">
-        <v>6</v>
-      </c>
-      <c r="CC21" s="1">
-        <v>6</v>
-      </c>
-      <c r="CD21" s="1">
-        <v>6</v>
-      </c>
       <c r="CE21" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CF21" s="1" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="CG21" s="1" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="CH21" s="1" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="CI21" s="1" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="CJ21" s="1" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
     </row>
     <row r="22" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
-        <v>42843.8196034375</v>
+        <v>42844.675651168982</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="C22" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D22" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>395</v>
+        <v>89</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>126</v>
+        <v>90</v>
       </c>
       <c r="H22" s="1">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>92</v>
+        <v>164</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>254</v>
+        <v>402</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
+      </c>
+      <c r="M22" s="1">
+        <v>1.05</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="T22" s="1">
-        <v>61</v>
+        <v>72.5</v>
       </c>
       <c r="U22" s="1">
-        <v>14</v>
+        <v>17.25</v>
       </c>
       <c r="V22" s="1">
-        <v>29.25</v>
+        <v>32.25</v>
       </c>
       <c r="W22" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X22" s="1">
+        <v>6</v>
+      </c>
+      <c r="Y22" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="Z22" s="1">
+        <v>6</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>6</v>
+      </c>
+      <c r="AB22" s="1">
+        <v>6</v>
+      </c>
+      <c r="AC22" s="1">
+        <v>6</v>
+      </c>
+      <c r="AD22" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE22" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AF22" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG22" s="1">
+        <v>6</v>
+      </c>
+      <c r="AH22" s="1">
+        <v>6</v>
+      </c>
+      <c r="AI22" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="AJ22" s="1">
+        <v>5</v>
+      </c>
+      <c r="AK22" s="1">
+        <v>6</v>
+      </c>
+      <c r="AL22" s="1">
+        <v>6</v>
+      </c>
+      <c r="AM22" s="1">
+        <v>6</v>
+      </c>
+      <c r="AN22" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="AO22" s="1">
+        <v>6</v>
+      </c>
+      <c r="AP22" s="1">
+        <v>5</v>
+      </c>
+      <c r="AQ22" s="1">
+        <v>5</v>
+      </c>
+      <c r="AR22" s="1">
+        <v>5</v>
+      </c>
+      <c r="AS22" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="AT22" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="AU22" s="1">
+        <v>6</v>
+      </c>
+      <c r="AV22" s="1">
+        <v>5</v>
+      </c>
+      <c r="AW22" s="1">
+        <v>5</v>
+      </c>
+      <c r="AX22" s="1">
+        <v>6</v>
+      </c>
+      <c r="AY22" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="AZ22" s="1">
+        <v>6</v>
+      </c>
+      <c r="BA22" s="1">
+        <v>6</v>
+      </c>
+      <c r="BB22" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC22" s="1">
+        <v>6</v>
+      </c>
+      <c r="BD22" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="BK22" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BL22" s="1">
+        <v>6</v>
+      </c>
+      <c r="BM22" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BN22" s="1">
+        <v>5</v>
+      </c>
+      <c r="BO22" s="1">
+        <v>5</v>
+      </c>
+      <c r="BP22" s="1">
+        <v>5</v>
+      </c>
+      <c r="BQ22" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BT22" s="1">
+        <v>5</v>
+      </c>
+      <c r="BV22" s="1">
+        <v>6</v>
+      </c>
+      <c r="BW22" s="1">
+        <v>5</v>
+      </c>
+      <c r="BX22" s="1">
+        <v>6</v>
+      </c>
+      <c r="BY22" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="BZ22" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="CA22" s="1">
+        <v>4</v>
+      </c>
+      <c r="CB22" s="1">
+        <v>2</v>
+      </c>
+      <c r="CC22" s="1">
         <v>3</v>
       </c>
-      <c r="Y22" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="Z22" s="1">
-        <v>5</v>
-      </c>
-      <c r="AA22" s="1">
-        <v>6</v>
-      </c>
-      <c r="AB22" s="1">
-        <v>6</v>
-      </c>
-      <c r="AC22" s="1">
-        <v>6</v>
-      </c>
-      <c r="AD22" s="1">
-        <v>4</v>
-      </c>
-      <c r="AE22" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="AF22" s="1">
-        <v>6</v>
-      </c>
-      <c r="AG22" s="1">
-        <v>6</v>
-      </c>
-      <c r="AH22" s="1">
-        <v>6</v>
-      </c>
-      <c r="AI22" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="AJ22" s="1">
-        <v>6</v>
-      </c>
-      <c r="AK22" s="1">
-        <v>6</v>
-      </c>
-      <c r="AL22" s="1">
-        <v>6</v>
-      </c>
-      <c r="AM22" s="1">
-        <v>6</v>
-      </c>
-      <c r="AO22" s="1">
-        <v>6</v>
-      </c>
-      <c r="AP22" s="1">
-        <v>6</v>
-      </c>
-      <c r="AQ22" s="1">
-        <v>6</v>
-      </c>
-      <c r="AR22" s="1">
-        <v>6</v>
-      </c>
-      <c r="AS22" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="AU22" s="1">
-        <v>6</v>
-      </c>
-      <c r="AV22" s="1">
-        <v>4</v>
-      </c>
-      <c r="AW22" s="1">
-        <v>6</v>
-      </c>
-      <c r="AX22" s="1">
-        <v>6</v>
-      </c>
-      <c r="AY22" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="AZ22" s="1">
-        <v>6</v>
-      </c>
-      <c r="BA22" s="1">
-        <v>6</v>
-      </c>
-      <c r="BB22" s="1">
-        <v>6</v>
-      </c>
-      <c r="BC22" s="1">
-        <v>6</v>
-      </c>
-      <c r="BD22" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="BK22" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="BL22" s="1">
-        <v>6</v>
-      </c>
-      <c r="BM22" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="BN22" s="1">
-        <v>5</v>
-      </c>
-      <c r="BO22" s="1">
-        <v>4</v>
-      </c>
-      <c r="BP22" s="1">
-        <v>6</v>
-      </c>
-      <c r="BQ22" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="BT22" s="1">
-        <v>6</v>
-      </c>
-      <c r="BU22" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="BV22" s="1">
-        <v>6</v>
-      </c>
-      <c r="BW22" s="1">
-        <v>6</v>
-      </c>
-      <c r="BX22" s="1">
-        <v>4</v>
-      </c>
-      <c r="BY22" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="BZ22" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="CA22" s="1">
-        <v>6</v>
-      </c>
-      <c r="CB22" s="1">
-        <v>3</v>
-      </c>
-      <c r="CC22" s="1">
-        <v>4</v>
-      </c>
       <c r="CD22" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="CE22" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CF22" s="1" t="s">
-        <v>184</v>
+        <v>99</v>
       </c>
       <c r="CG22" s="1" t="s">
-        <v>406</v>
+        <v>414</v>
+      </c>
+      <c r="CI22" s="1" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="23" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
-        <v>42843.822506608798</v>
+        <v>42844.676783148148</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="C23" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D23" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>188</v>
+        <v>114</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>90</v>
+        <v>194</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="H23" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>377</v>
+        <v>229</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>410</v>
+        <v>88</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T23" s="1">
-        <v>74.5</v>
+        <v>63.5</v>
       </c>
       <c r="U23" s="1">
-        <v>19.25</v>
+        <v>17</v>
       </c>
       <c r="V23" s="1">
-        <v>32.5</v>
+        <v>28.75</v>
       </c>
       <c r="W23" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X23" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y23" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Z23" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA23" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB23" s="1">
+        <v>6</v>
+      </c>
+      <c r="AC23" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD23" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE23" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="AF23" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG23" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH23" s="1">
+        <v>5</v>
+      </c>
+      <c r="AI23" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="AJ23" s="1">
+        <v>4</v>
+      </c>
+      <c r="AK23" s="1">
+        <v>5</v>
+      </c>
+      <c r="AL23" s="1">
+        <v>6</v>
+      </c>
+      <c r="AM23" s="1">
+        <v>6</v>
+      </c>
+      <c r="AN23" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="AO23" s="1">
+        <v>5</v>
+      </c>
+      <c r="AP23" s="1">
+        <v>6</v>
+      </c>
+      <c r="AQ23" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR23" s="1">
+        <v>4</v>
+      </c>
+      <c r="AS23" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="AT23" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="AU23" s="1">
+        <v>5</v>
+      </c>
+      <c r="AV23" s="1">
         <v>2</v>
       </c>
-      <c r="Y23" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="Z23" s="1">
-        <v>6</v>
-      </c>
-      <c r="AA23" s="1">
-        <v>6</v>
-      </c>
-      <c r="AB23" s="1">
-        <v>5</v>
-      </c>
-      <c r="AC23" s="1">
-        <v>4</v>
-      </c>
-      <c r="AD23" s="1">
-        <v>5</v>
-      </c>
-      <c r="AE23" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="AF23" s="1">
-        <v>4</v>
-      </c>
-      <c r="AG23" s="1">
-        <v>6</v>
-      </c>
-      <c r="AH23" s="1">
-        <v>6</v>
-      </c>
-      <c r="AI23" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="AJ23" s="1">
-        <v>6</v>
-      </c>
-      <c r="AK23" s="1">
-        <v>6</v>
-      </c>
-      <c r="AL23" s="1">
-        <v>6</v>
-      </c>
-      <c r="AM23" s="1">
-        <v>5</v>
-      </c>
-      <c r="AN23" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="AO23" s="1">
-        <v>5</v>
-      </c>
-      <c r="AP23" s="1">
-        <v>6</v>
-      </c>
-      <c r="AQ23" s="1">
-        <v>5</v>
-      </c>
-      <c r="AR23" s="1">
-        <v>6</v>
-      </c>
-      <c r="AS23" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="AT23" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="AU23" s="1">
-        <v>5</v>
-      </c>
-      <c r="AV23" s="1">
-        <v>5</v>
-      </c>
       <c r="AW23" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AX23" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AY23" s="1" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="AZ23" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BA23" s="1">
         <v>6</v>
@@ -6869,19 +6814,16 @@
         <v>6</v>
       </c>
       <c r="BD23" s="1" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="BK23" s="1" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="BL23" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BM23" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="BN23" s="1">
-        <v>6</v>
+        <v>88</v>
       </c>
       <c r="BO23" s="1">
         <v>5</v>
@@ -6890,129 +6832,123 @@
         <v>5</v>
       </c>
       <c r="BQ23" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="BT23" s="1">
-        <v>6</v>
-      </c>
-      <c r="BU23" s="1" t="s">
-        <v>419</v>
+        <v>94</v>
+      </c>
+      <c r="BR23" s="1">
+        <v>4</v>
+      </c>
+      <c r="BS23" s="1" t="s">
+        <v>427</v>
       </c>
       <c r="BV23" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BW23" s="1">
         <v>5</v>
       </c>
       <c r="BX23" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BY23" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="BZ23" s="1" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="CA23" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CB23" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CC23" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CD23" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CE23" s="1">
         <v>5</v>
       </c>
       <c r="CF23" s="1" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="CG23" s="1" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="CH23" s="1" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="CI23" s="1" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="CJ23" s="1" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
     </row>
     <row r="24" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
-        <v>42844.675651168982</v>
+        <v>42844.676950011577</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="C24" s="1">
         <v>6</v>
       </c>
       <c r="D24" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>188</v>
+        <v>88</v>
       </c>
       <c r="F24" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="H24" s="1">
+        <v>29</v>
+      </c>
+      <c r="I24" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H24" s="1">
-        <v>26</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>189</v>
-      </c>
       <c r="J24" s="1" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="M24" s="1">
-        <v>1.05</v>
+        <v>88</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
+      </c>
+      <c r="R24" s="1">
+        <v>2</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="T24" s="1">
         <v>72.5</v>
       </c>
       <c r="U24" s="1">
-        <v>17.25</v>
+        <v>18</v>
       </c>
       <c r="V24" s="1">
-        <v>32.25</v>
+        <v>34</v>
       </c>
       <c r="W24" s="1">
         <v>5</v>
       </c>
       <c r="X24" s="1">
-        <v>6</v>
-      </c>
-      <c r="Y24" s="1" t="s">
-        <v>430</v>
+        <v>5</v>
       </c>
       <c r="Z24" s="1">
         <v>6</v>
@@ -7024,46 +6960,43 @@
         <v>6</v>
       </c>
       <c r="AC24" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AD24" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE24" s="1" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="AF24" s="1">
         <v>5</v>
       </c>
       <c r="AG24" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH24" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AI24" s="1" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="AJ24" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK24" s="1">
         <v>6</v>
       </c>
       <c r="AL24" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AM24" s="1">
         <v>6</v>
       </c>
-      <c r="AN24" s="1" t="s">
-        <v>433</v>
-      </c>
       <c r="AO24" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP24" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ24" s="1">
         <v>5</v>
@@ -7071,26 +7004,23 @@
       <c r="AR24" s="1">
         <v>5</v>
       </c>
-      <c r="AS24" s="1" t="s">
-        <v>434</v>
-      </c>
       <c r="AT24" s="1" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="AU24" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV24" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AW24" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AX24" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY24" s="1" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="AZ24" s="1">
         <v>6</v>
@@ -7105,19 +7035,19 @@
         <v>6</v>
       </c>
       <c r="BD24" s="1" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="BK24" s="1" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="BL24" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BM24" s="1" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="BN24" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BO24" s="1">
         <v>5</v>
@@ -7126,13 +7056,16 @@
         <v>5</v>
       </c>
       <c r="BQ24" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="BT24" s="1">
-        <v>5</v>
+        <v>94</v>
+      </c>
+      <c r="BR24" s="1">
+        <v>5</v>
+      </c>
+      <c r="BS24" s="1" t="s">
+        <v>442</v>
       </c>
       <c r="BV24" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BW24" s="1">
         <v>5</v>
@@ -7141,129 +7074,129 @@
         <v>6</v>
       </c>
       <c r="BY24" s="1" t="s">
-        <v>230</v>
+        <v>443</v>
       </c>
       <c r="BZ24" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="CA24" s="1">
-        <v>4</v>
-      </c>
-      <c r="CB24" s="1">
-        <v>2</v>
-      </c>
-      <c r="CC24" s="1">
-        <v>3</v>
-      </c>
-      <c r="CD24" s="1">
-        <v>5</v>
-      </c>
-      <c r="CE24" s="1">
-        <v>4</v>
-      </c>
-      <c r="CF24" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="CG24" s="1" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="CI24" s="1" t="s">
-        <v>440</v>
+        <v>445</v>
+      </c>
+      <c r="CJ24" s="1" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="25" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
-        <v>42844.676783148148</v>
+        <v>42844.679015682872</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C25" s="1">
         <v>6</v>
       </c>
       <c r="D25" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>219</v>
+        <v>88</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>126</v>
+        <v>90</v>
       </c>
       <c r="H25" s="1">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>443</v>
+        <v>92</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
+      </c>
+      <c r="M25" s="1">
+        <v>130</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>450</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>0</v>
+      </c>
+      <c r="R25" s="1">
+        <v>0</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="T25" s="1">
-        <v>63.5</v>
+        <v>66</v>
       </c>
       <c r="U25" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V25" s="1">
-        <v>28.75</v>
+        <v>29.75</v>
       </c>
       <c r="W25" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="X25" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y25" s="1" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="Z25" s="1">
         <v>5</v>
       </c>
       <c r="AA25" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB25" s="1">
         <v>6</v>
       </c>
       <c r="AC25" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD25" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE25" s="1" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="AF25" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG25" s="1">
         <v>5</v>
       </c>
       <c r="AH25" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI25" s="1" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="AJ25" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK25" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AL25" s="1">
         <v>6</v>
@@ -7272,40 +7205,40 @@
         <v>6</v>
       </c>
       <c r="AN25" s="1" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="AO25" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AP25" s="1">
         <v>6</v>
       </c>
       <c r="AQ25" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AR25" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AS25" s="1" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="AT25" s="1" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="AU25" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV25" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW25" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX25" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AY25" s="1" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="AZ25" s="1">
         <v>6</v>
@@ -7320,518 +7253,79 @@
         <v>6</v>
       </c>
       <c r="BD25" s="1" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="BK25" s="1" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="BL25" s="1">
         <v>5</v>
       </c>
       <c r="BM25" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
+      </c>
+      <c r="BN25" s="1">
+        <v>4</v>
       </c>
       <c r="BO25" s="1">
         <v>5</v>
       </c>
       <c r="BP25" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BQ25" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="BR25" s="1">
-        <v>4</v>
-      </c>
-      <c r="BS25" s="1" t="s">
-        <v>452</v>
+        <v>98</v>
+      </c>
+      <c r="BT25" s="1">
+        <v>6</v>
+      </c>
+      <c r="BU25" s="1" t="s">
+        <v>459</v>
       </c>
       <c r="BV25" s="1">
         <v>5</v>
       </c>
       <c r="BW25" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BX25" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BY25" s="1" t="s">
-        <v>453</v>
+        <v>460</v>
+      </c>
+      <c r="BZ25" s="1" t="s">
+        <v>461</v>
       </c>
       <c r="CA25" s="1">
         <v>5</v>
       </c>
       <c r="CB25" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CC25" s="1">
         <v>5</v>
       </c>
       <c r="CD25" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CE25" s="1">
         <v>5</v>
       </c>
       <c r="CF25" s="1" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="CG25" s="1" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="CH25" s="1" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="CI25" s="1" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="CJ25" s="1" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="26" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
-        <v>42844.676950011577</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="C26" s="1">
-        <v>6</v>
-      </c>
-      <c r="D26" s="1">
-        <v>2</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H26" s="1">
-        <v>29</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="P26" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="R26" s="1">
-        <v>2</v>
-      </c>
-      <c r="S26" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="T26" s="1">
-        <v>72.5</v>
-      </c>
-      <c r="U26" s="1">
-        <v>18</v>
-      </c>
-      <c r="V26" s="1">
-        <v>34</v>
-      </c>
-      <c r="W26" s="1">
-        <v>5</v>
-      </c>
-      <c r="X26" s="1">
-        <v>5</v>
-      </c>
-      <c r="Z26" s="1">
-        <v>6</v>
-      </c>
-      <c r="AA26" s="1">
-        <v>6</v>
-      </c>
-      <c r="AB26" s="1">
-        <v>6</v>
-      </c>
-      <c r="AC26" s="1">
-        <v>5</v>
-      </c>
-      <c r="AD26" s="1">
-        <v>4</v>
-      </c>
-      <c r="AE26" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="AF26" s="1">
-        <v>5</v>
-      </c>
-      <c r="AG26" s="1">
-        <v>5</v>
-      </c>
-      <c r="AH26" s="1">
-        <v>4</v>
-      </c>
-      <c r="AI26" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="AJ26" s="1">
-        <v>4</v>
-      </c>
-      <c r="AK26" s="1">
-        <v>6</v>
-      </c>
-      <c r="AL26" s="1">
-        <v>5</v>
-      </c>
-      <c r="AM26" s="1">
-        <v>6</v>
-      </c>
-      <c r="AO26" s="1">
-        <v>5</v>
-      </c>
-      <c r="AP26" s="1">
-        <v>6</v>
-      </c>
-      <c r="AQ26" s="1">
-        <v>5</v>
-      </c>
-      <c r="AR26" s="1">
-        <v>5</v>
-      </c>
-      <c r="AT26" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="AU26" s="1">
-        <v>5</v>
-      </c>
-      <c r="AV26" s="1">
-        <v>2</v>
-      </c>
-      <c r="AW26" s="1">
-        <v>2</v>
-      </c>
-      <c r="AX26" s="1">
-        <v>5</v>
-      </c>
-      <c r="AY26" s="1" t="s">
         <v>465</v>
-      </c>
-      <c r="AZ26" s="1">
-        <v>6</v>
-      </c>
-      <c r="BA26" s="1">
-        <v>6</v>
-      </c>
-      <c r="BB26" s="1">
-        <v>6</v>
-      </c>
-      <c r="BC26" s="1">
-        <v>6</v>
-      </c>
-      <c r="BD26" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="BK26" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="BL26" s="1">
-        <v>5</v>
-      </c>
-      <c r="BM26" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="BN26" s="1">
-        <v>2</v>
-      </c>
-      <c r="BO26" s="1">
-        <v>5</v>
-      </c>
-      <c r="BP26" s="1">
-        <v>5</v>
-      </c>
-      <c r="BQ26" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="BR26" s="1">
-        <v>5</v>
-      </c>
-      <c r="BS26" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="BV26" s="1">
-        <v>5</v>
-      </c>
-      <c r="BW26" s="1">
-        <v>5</v>
-      </c>
-      <c r="BX26" s="1">
-        <v>6</v>
-      </c>
-      <c r="BY26" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="BZ26" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="CI26" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="CJ26" s="1" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="27" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
-        <v>42844.679015682872</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="C27" s="1">
-        <v>6</v>
-      </c>
-      <c r="D27" s="1">
-        <v>4</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H27" s="1">
-        <v>19</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="M27" s="1">
-        <v>130</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="O27" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="P27" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q27" s="1">
-        <v>0</v>
-      </c>
-      <c r="R27" s="1">
-        <v>0</v>
-      </c>
-      <c r="S27" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="T27" s="1">
-        <v>66</v>
-      </c>
-      <c r="U27" s="1">
-        <v>16</v>
-      </c>
-      <c r="V27" s="1">
-        <v>29.75</v>
-      </c>
-      <c r="W27" s="1">
-        <v>6</v>
-      </c>
-      <c r="X27" s="1">
-        <v>6</v>
-      </c>
-      <c r="Y27" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="Z27" s="1">
-        <v>5</v>
-      </c>
-      <c r="AA27" s="1">
-        <v>6</v>
-      </c>
-      <c r="AB27" s="1">
-        <v>6</v>
-      </c>
-      <c r="AC27" s="1">
-        <v>6</v>
-      </c>
-      <c r="AD27" s="1">
-        <v>5</v>
-      </c>
-      <c r="AE27" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="AF27" s="1">
-        <v>6</v>
-      </c>
-      <c r="AG27" s="1">
-        <v>5</v>
-      </c>
-      <c r="AH27" s="1">
-        <v>6</v>
-      </c>
-      <c r="AI27" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="AJ27" s="1">
-        <v>5</v>
-      </c>
-      <c r="AK27" s="1">
-        <v>6</v>
-      </c>
-      <c r="AL27" s="1">
-        <v>6</v>
-      </c>
-      <c r="AM27" s="1">
-        <v>6</v>
-      </c>
-      <c r="AN27" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="AO27" s="1">
-        <v>4</v>
-      </c>
-      <c r="AP27" s="1">
-        <v>6</v>
-      </c>
-      <c r="AQ27" s="1">
-        <v>6</v>
-      </c>
-      <c r="AR27" s="1">
-        <v>5</v>
-      </c>
-      <c r="AS27" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="AT27" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="AU27" s="1">
-        <v>6</v>
-      </c>
-      <c r="AV27" s="1">
-        <v>4</v>
-      </c>
-      <c r="AW27" s="1">
-        <v>6</v>
-      </c>
-      <c r="AX27" s="1">
-        <v>6</v>
-      </c>
-      <c r="AY27" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="AZ27" s="1">
-        <v>6</v>
-      </c>
-      <c r="BA27" s="1">
-        <v>6</v>
-      </c>
-      <c r="BB27" s="1">
-        <v>6</v>
-      </c>
-      <c r="BC27" s="1">
-        <v>6</v>
-      </c>
-      <c r="BD27" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="BK27" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="BL27" s="1">
-        <v>5</v>
-      </c>
-      <c r="BM27" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="BN27" s="1">
-        <v>4</v>
-      </c>
-      <c r="BO27" s="1">
-        <v>5</v>
-      </c>
-      <c r="BP27" s="1">
-        <v>6</v>
-      </c>
-      <c r="BQ27" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="BT27" s="1">
-        <v>6</v>
-      </c>
-      <c r="BU27" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="BV27" s="1">
-        <v>5</v>
-      </c>
-      <c r="BW27" s="1">
-        <v>6</v>
-      </c>
-      <c r="BX27" s="1">
-        <v>6</v>
-      </c>
-      <c r="BY27" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="BZ27" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="CA27" s="1">
-        <v>5</v>
-      </c>
-      <c r="CB27" s="1">
-        <v>3</v>
-      </c>
-      <c r="CC27" s="1">
-        <v>5</v>
-      </c>
-      <c r="CD27" s="1">
-        <v>3</v>
-      </c>
-      <c r="CE27" s="1">
-        <v>5</v>
-      </c>
-      <c r="CF27" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="CG27" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="CH27" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="CI27" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="CJ27" s="1" t="s">
-        <v>490</v>
       </c>
     </row>
   </sheetData>
